--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
     <sheet name="19.11.01" sheetId="2" r:id="rId2"/>
     <sheet name="19.11.3" sheetId="3" r:id="rId3"/>
     <sheet name="19.11.4" sheetId="4" r:id="rId4"/>
+    <sheet name="19.11.5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="48">
   <si>
     <t>订单编号</t>
   </si>
@@ -196,11 +197,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -230,6 +231,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -244,14 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -261,7 +270,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +308,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -285,67 +317,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +331,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +362,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,25 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +462,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,25 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,55 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +608,51 @@
         <color rgb="FFDDDDDD"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,32 +682,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -669,17 +689,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,21 +708,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,137 +728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,32 +889,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1278,61 +1282,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>1.02019102916434e+23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="16">
         <v>43767.6970601852</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="17">
         <v>191</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1368,877 +1372,877 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>1.02019110117073e+23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="16">
         <v>43770.7136226852</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="17">
         <v>24</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>1.02019110116593e+23</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>43770.7080902778</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>419.4</v>
       </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>1.02019110116585e+23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>43770.7076157407</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="17">
         <v>188.9</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>1.02019110116582e+23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>43770.7072800926</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>672.9</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>1.0201911011658e+23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="16">
         <v>43770.7069675926</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>90.6</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>1.02019110116573e+23</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>43770.7066319444</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>589.8</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:7">
-      <c r="A14" s="11">
+      <c r="A14" s="15">
         <v>1.0201911011657e+23</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="16">
         <v>43770.7063194444</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="17">
         <v>547</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:7">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>1.02019110116562e+23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="12">
         <v>43770.7058796296</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>543</v>
       </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="11">
+      <c r="A18" s="15">
         <v>1.02019110116555e+23</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <v>43770.705474537</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="17">
         <v>785.9</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>1.02019110116552e+23</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="12">
         <v>43770.705162037</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>317</v>
       </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="11">
+      <c r="A22" s="15">
         <v>1.02019110116543e+23</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="16">
         <v>43770.7046180556</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="17">
         <v>603</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>1.02019110116541e+23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="12">
         <v>43770.7043171296</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>643</v>
       </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="11">
+      <c r="A26" s="15">
         <v>1.02019110116522e+23</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="16">
         <v>43770.7030208333</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="17">
         <v>152</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>1.02019110116512e+23</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="12">
         <v>43770.7024074074</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>149.9</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:7">
-      <c r="A29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="15"/>
+      <c r="A29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="11">
+      <c r="A30" s="15">
         <v>1.02019110116505e+23</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="16">
         <v>43770.7020023148</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="17">
         <v>753</v>
       </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
+      <c r="A31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="11">
+      <c r="A32" s="15">
         <v>1.02019110116502e+23</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="16">
         <v>43770.7016319444</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="17">
         <v>311</v>
       </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>1.02019110116495e+23</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="12">
         <v>43770.7013310185</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="13">
         <v>648</v>
       </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="15"/>
+      <c r="A35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="11">
+      <c r="A36" s="15">
         <v>1.02019110116492e+23</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="16">
         <v>43770.7009837963</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="17">
         <v>267.9</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>1.02019110116451e+23</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="12">
         <v>43770.6981134259</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="13">
         <v>998</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="15"/>
+      <c r="A39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="11">
+      <c r="A40" s="15">
         <v>1.02019110116445e+23</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="16">
         <v>43770.6978009259</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="17">
         <v>334</v>
       </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="17">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11"/>
+      <c r="A41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="15">
+      <c r="A42" s="11">
         <v>1.02019110116392e+23</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="12">
         <v>43770.6940856481</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="13">
         <v>37</v>
       </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="15" t="s">
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="15"/>
+      <c r="A43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="11">
+      <c r="A44" s="15">
         <v>1.02019110116385e+23</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="16">
         <v>43770.6936342593</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="17">
         <v>195.9</v>
       </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="15">
+      <c r="A46" s="11">
         <v>1.02019110116285e+23</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="12">
         <v>43770.6867708333</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="13">
         <v>186</v>
       </c>
-      <c r="F46" s="17">
-        <v>0</v>
-      </c>
-      <c r="G46" s="15" t="s">
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="15"/>
+      <c r="A47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="11">
+      <c r="A48" s="15">
         <v>1.02019110116264e+23</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="16">
         <v>43770.6852430556</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="17">
         <v>758</v>
       </c>
-      <c r="F48" s="13">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="17">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="11"/>
+      <c r="A49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>1.02019110116184e+23</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="12">
         <v>43770.6797222222</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="13">
         <v>677.5</v>
       </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15" t="s">
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="15"/>
+      <c r="A51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -2450,7 +2454,7 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="19">
         <v>43772.9371990741</v>
       </c>
       <c r="E1" t="s">
@@ -2476,7 +2480,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="19">
         <v>43772.9366435185</v>
       </c>
       <c r="E2" t="s">
@@ -2502,7 +2506,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="19">
         <v>43772.9354050926</v>
       </c>
       <c r="E3" t="s">
@@ -2528,7 +2532,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="19">
         <v>43772.9350694444</v>
       </c>
       <c r="E4" t="s">
@@ -2554,7 +2558,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="19">
         <v>43772.9344444444</v>
       </c>
       <c r="E5" t="s">
@@ -2580,7 +2584,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="19">
         <v>43772.9339351852</v>
       </c>
       <c r="E6" t="s">
@@ -2606,7 +2610,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="19">
         <v>43772.933599537</v>
       </c>
       <c r="E7" t="s">
@@ -2632,7 +2636,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="19">
         <v>43772.9327662037</v>
       </c>
       <c r="E8" t="s">
@@ -2658,7 +2662,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="19">
         <v>43772.9284606481</v>
       </c>
       <c r="E9" t="s">
@@ -2681,7 +2685,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="19">
         <v>43772.9269907407</v>
       </c>
       <c r="E10" t="s">
@@ -2707,7 +2711,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="19">
         <v>43772.926712963</v>
       </c>
       <c r="E11" t="s">
@@ -2733,7 +2737,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="19">
         <v>43772.9264236111</v>
       </c>
       <c r="E12" t="s">
@@ -2759,7 +2763,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="19">
         <v>43772.9261458333</v>
       </c>
       <c r="E13" t="s">
@@ -2785,7 +2789,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="19">
         <v>43772.9258680556</v>
       </c>
       <c r="E14" t="s">
@@ -2811,7 +2815,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="19">
         <v>43772.9255208333</v>
       </c>
       <c r="E15" t="s">
@@ -2837,7 +2841,7 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="19">
         <v>43772.9229050926</v>
       </c>
       <c r="E16" t="s">
@@ -2863,7 +2867,7 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="19">
         <v>43772.9225810185</v>
       </c>
       <c r="E17" t="s">
@@ -2889,7 +2893,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="19">
         <v>43772.9222800926</v>
       </c>
       <c r="E18" t="s">
@@ -2915,7 +2919,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="19">
         <v>43772.9219560185</v>
       </c>
       <c r="E19" t="s">
@@ -2941,7 +2945,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="19">
         <v>43772.9196527778</v>
       </c>
       <c r="E20" t="s">
@@ -2964,7 +2968,7 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="19">
         <v>43772.919224537</v>
       </c>
       <c r="E21" t="s">
@@ -2990,7 +2994,7 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="19">
         <v>43772.9188425926</v>
       </c>
       <c r="E22" t="s">
@@ -3018,8 +3022,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3030,639 +3034,639 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <v>1.02019110410012e+23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12">
         <v>43773.417662037</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="13">
         <v>598</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="15">
         <v>1.02019110410004e+23</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16">
         <v>43773.4171990741</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="17">
         <v>396</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="11">
         <v>1.02019110410001e+23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
         <v>43773.4168518518</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="13">
         <v>512</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="15">
         <v>1.02019110409594e+23</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16">
         <v>43773.4164583333</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="17">
         <v>787</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="11">
         <v>1.0201911040959e+23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12">
         <v>43773.4160763889</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="13">
         <v>661</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="15">
         <v>1.02019110409584e+23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16">
         <v>43773.415787037</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="17">
         <v>322.9</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="11">
         <v>1.02019110409581e+23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12">
         <v>43773.415462963</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="13">
         <v>621.9</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="15">
         <v>1.02019110409541e+23</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16">
         <v>43773.4127083333</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="17">
         <v>190</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="11">
         <v>1.02019110409534e+23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12">
         <v>43773.4123263889</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="13">
         <v>548</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="15">
         <v>1.02019110409525e+23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="16">
         <v>43773.4117592593</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="17">
         <v>79</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="2">
+      <c r="A22" s="11">
         <v>1.02019110409522e+23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="12">
         <v>43773.4113425926</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="13">
         <v>127</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="6">
+      <c r="A24" s="15">
         <v>1.02019110409505e+23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="16">
         <v>43773.4103009259</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="17">
         <v>101.9</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="2">
+      <c r="A26" s="11">
         <v>1.02019110409495e+23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12">
         <v>43773.4096759259</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="13">
         <v>640.9</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="6">
+      <c r="A28" s="15">
         <v>1.02019110409482e+23</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="16">
         <v>43773.4085763889</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="17">
         <v>149.9</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6">
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="15">
         <v>1.02019110409465e+23</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="16">
         <v>43773.4076273148</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="17">
         <v>1079</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="6"/>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="2">
+      <c r="A32" s="11">
         <v>1.02019110409373e+23</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="12">
         <v>43773.4010532407</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="13">
         <v>589</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
+      <c r="A33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="6">
+      <c r="A34" s="15">
         <v>1.02019110409351e+23</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="16">
         <v>43773.399525463</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="17">
         <v>66</v>
       </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="2">
+      <c r="A36" s="11">
         <v>1.02019110409342e+23</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12">
         <v>43773.3988425926</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="13">
         <v>522</v>
       </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -3798,4 +3802,1406 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.125"/>
+    <col min="3" max="3" width="13.375"/>
+    <col min="5" max="5" width="9.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1.0201911052106e+23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43774.8792592593</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4">
+        <v>729.9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7">
+      <c r="A4" s="6">
+        <v>1.02019110521053e+23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43774.8789236111</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1340.9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7">
+      <c r="A6" s="2">
+        <v>1.02019110521051e+23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43774.8786342593</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>311</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:7">
+      <c r="A8" s="6">
+        <v>1.02019110521044e+23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43774.8783217593</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1388</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:7">
+      <c r="A10" s="2">
+        <v>1.02019110521021e+23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43774.8765972222</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>143</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:7">
+      <c r="A12" s="6">
+        <v>1.02019110521015e+23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43774.8763078704</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8">
+        <v>321</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="2">
+        <v>1.02019110521012e+23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43774.8760300926</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4">
+        <v>312.9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="6">
+        <v>1.0201911052101e+23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43774.875775463</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8">
+        <v>187.9</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="2">
+        <v>1.02019110521004e+23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43774.8755324074</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4">
+        <v>299</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="6">
+        <v>1.02019110521002e+23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43774.8753125</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1352</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="2">
+        <v>1.02019110521e+23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43774.8750578704</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <v>207.9</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="6">
+        <v>1.02019110520594e+23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7">
+        <v>43774.8748611111</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
+        <v>561</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="2">
+        <v>1.02019110520592e+23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43774.874537037</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>655</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="6">
+        <v>1.0201911052059e+23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="7">
+        <v>43774.8743402778</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8">
+        <v>957</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>1.02019110520555e+23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43774.8721180556</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1064</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="2">
+        <v>1.02019110520552e+23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43774.8718287037</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4">
+        <v>764</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="6">
+        <v>1.0201911052055e+23</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7">
+        <v>43774.8715740741</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="8">
+        <v>763.9</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="2">
+        <v>1.02019110520543e+23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43774.8712268519</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4">
+        <v>463.9</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="6">
+        <v>1.0201911052054e+23</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="7">
+        <v>43774.8708680556</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="8">
+        <v>404.9</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="2">
+        <v>1.02019110520525e+23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43774.8700347222</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4">
+        <v>444</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="2">
+        <v>1.020191105184e+23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43774.7778819444</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="4">
+        <v>184</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:7">
+      <c r="A44" s="6">
+        <v>1.02019110518391e+23</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43774.7771990741</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="8">
+        <v>39.8</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:7">
+      <c r="A45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:7">
+      <c r="A46" s="2">
+        <v>1.02019110518383e+23</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43774.7768402778</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="4">
+        <v>142</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:7">
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:7">
+      <c r="A48" s="6">
+        <v>1.02019110518371e+23</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7">
+        <v>43774.7759143518</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="8">
+        <v>131.9</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:7">
+      <c r="A50" s="2">
+        <v>1.02019110518364e+23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43774.7755555556</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="4">
+        <v>958</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:7">
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:7">
+      <c r="A52" s="6">
+        <v>1.02019110518362e+23</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="7">
+        <v>43774.7752430556</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="8">
+        <v>151</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:7">
+      <c r="A53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:7">
+      <c r="A54" s="2">
+        <v>1.02019110518352e+23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43774.7746064815</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="4">
+        <v>105.9</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:7">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:7">
+      <c r="A56" s="6">
+        <v>1.02019110518263e+23</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="7">
+        <v>43774.7684259259</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="8">
+        <v>581</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:7">
+      <c r="A57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:7">
+      <c r="A58" s="6">
+        <v>1.0201911051826e+23</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="7">
+        <v>43774.7680671296</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="8">
+        <v>141</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:7">
+      <c r="A59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:7">
+      <c r="A60" s="2">
+        <v>1.02019110518253e+23</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="3">
+        <v>43774.7677430556</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="4">
+        <v>131.9</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:7">
+      <c r="A61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:7">
+      <c r="A62" s="6">
+        <v>1.0201911051825e+23</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="7">
+        <v>43774.7674421296</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="8">
+        <v>149</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:7">
+      <c r="A63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:7">
+      <c r="A64" s="2">
+        <v>1.02019110518241e+23</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43774.7668171296</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="4">
+        <v>227</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:7">
+      <c r="A65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" ht="14.25" spans="1:7">
+      <c r="A66" s="6">
+        <v>1.02019110518225e+23</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="7">
+        <v>43774.7658680556</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="8">
+        <v>346.9</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="198">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3689"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3688"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3687"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3686"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3685"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3684"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3683"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3682"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3681"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3680"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3679"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3678"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3677"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3676"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3675"/>
+    <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3674"/>
+    <hyperlink ref="A35" r:id="rId17" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3673"/>
+    <hyperlink ref="A37" r:id="rId18" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3672"/>
+    <hyperlink ref="A39" r:id="rId19" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3671"/>
+    <hyperlink ref="A41" r:id="rId20" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3670"/>
+    <hyperlink ref="A43" r:id="rId21" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3668"/>
+    <hyperlink ref="A45" r:id="rId22" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3667"/>
+    <hyperlink ref="A47" r:id="rId23" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3666"/>
+    <hyperlink ref="A49" r:id="rId24" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3665"/>
+    <hyperlink ref="A51" r:id="rId25" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3664"/>
+    <hyperlink ref="A53" r:id="rId26" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3663"/>
+    <hyperlink ref="A55" r:id="rId27" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3662"/>
+    <hyperlink ref="A57" r:id="rId28" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3661"/>
+    <hyperlink ref="A59" r:id="rId29" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3660"/>
+    <hyperlink ref="A61" r:id="rId30" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3659"/>
+    <hyperlink ref="A63" r:id="rId31" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3658"/>
+    <hyperlink ref="A65" r:id="rId32" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3657"/>
+    <hyperlink ref="A67" r:id="rId33" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3656"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="19.11.3" sheetId="3" r:id="rId3"/>
     <sheet name="19.11.4" sheetId="4" r:id="rId4"/>
     <sheet name="19.11.5" sheetId="5" r:id="rId5"/>
+    <sheet name="19.11.6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="48">
   <si>
     <t>订单编号</t>
   </si>
@@ -197,11 +198,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -210,13 +211,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.75"/>
-      <color rgb="FF222222"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -231,20 +225,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -261,16 +246,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,8 +285,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,16 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,38 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,12 +391,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBF2F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,7 +403,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEBF2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +511,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,115 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,36 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -680,6 +651,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -700,6 +686,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -716,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,192 +729,189 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1282,61 +1280,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1.02019102916434e+23</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15">
         <v>43767.6970601852</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>191</v>
       </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1372,877 +1370,877 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1.02019110117073e+23</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15">
         <v>43770.7136226852</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>24</v>
       </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1.02019110116593e+23</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
         <v>43770.7080902778</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>419.4</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>1.02019110116585e+23</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
         <v>43770.7076157407</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>188.9</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>1.02019110116582e+23</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
         <v>43770.7072800926</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>672.9</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>1.0201911011658e+23</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
         <v>43770.7069675926</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>90.6</v>
       </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>1.02019110116573e+23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11">
         <v>43770.7066319444</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>589.8</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:7">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>1.0201911011657e+23</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15">
         <v>43770.7063194444</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>547</v>
       </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:7">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>1.02019110116562e+23</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11">
         <v>43770.7058796296</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>543</v>
       </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>1.02019110116555e+23</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="15">
         <v>43770.705474537</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>785.9</v>
       </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>1.02019110116552e+23</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11">
         <v>43770.705162037</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>317</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
+      <c r="A21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>1.02019110116543e+23</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="15">
         <v>43770.7046180556</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>603</v>
       </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>1.02019110116541e+23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11">
         <v>43770.7043171296</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>643</v>
       </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
+      <c r="A25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>1.02019110116522e+23</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="B26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15">
         <v>43770.7030208333</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>152</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>1.02019110116512e+23</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11">
         <v>43770.7024074074</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>149.9</v>
       </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:7">
-      <c r="A29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11"/>
+      <c r="A29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>1.02019110116505e+23</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
         <v>43770.7020023148</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>753</v>
       </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="15"/>
+      <c r="A31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>1.02019110116502e+23</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="B32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="15">
         <v>43770.7016319444</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>311</v>
       </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="15"/>
+      <c r="A33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>1.02019110116495e+23</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11">
         <v>43770.7013310185</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>648</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>1.02019110116492e+23</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="16">
+      <c r="B36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15">
         <v>43770.7009837963</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>267.9</v>
       </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="15"/>
+      <c r="A37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>1.02019110116451e+23</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="B38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11">
         <v>43770.6981134259</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>998</v>
       </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="11"/>
+      <c r="A39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>1.02019110116445e+23</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="16">
+      <c r="B40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="15">
         <v>43770.6978009259</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="16">
         <v>334</v>
       </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="15"/>
+      <c r="A41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>1.02019110116392e+23</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="12">
+      <c r="B42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11">
         <v>43770.6940856481</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>37</v>
       </c>
-      <c r="F42" s="13">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>1.02019110116385e+23</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="16">
+      <c r="B44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="15">
         <v>43770.6936342593</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>195.9</v>
       </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="15"/>
+      <c r="A45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>1.02019110116285e+23</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11">
         <v>43770.6867708333</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>186</v>
       </c>
-      <c r="F46" s="13">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>1.02019110116264e+23</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="16">
+      <c r="B48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="15">
         <v>43770.6852430556</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="16">
         <v>758</v>
       </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="15" t="s">
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="15"/>
+      <c r="A49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>1.02019110116184e+23</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="11">
         <v>43770.6797222222</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>677.5</v>
       </c>
-      <c r="F50" s="13">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="11"/>
+      <c r="A51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -2454,7 +2452,7 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="18">
         <v>43772.9371990741</v>
       </c>
       <c r="E1" t="s">
@@ -2480,7 +2478,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>43772.9366435185</v>
       </c>
       <c r="E2" t="s">
@@ -2506,7 +2504,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>43772.9354050926</v>
       </c>
       <c r="E3" t="s">
@@ -2532,7 +2530,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>43772.9350694444</v>
       </c>
       <c r="E4" t="s">
@@ -2558,7 +2556,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>43772.9344444444</v>
       </c>
       <c r="E5" t="s">
@@ -2584,7 +2582,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>43772.9339351852</v>
       </c>
       <c r="E6" t="s">
@@ -2610,7 +2608,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>43772.933599537</v>
       </c>
       <c r="E7" t="s">
@@ -2636,7 +2634,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>43772.9327662037</v>
       </c>
       <c r="E8" t="s">
@@ -2662,7 +2660,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>43772.9284606481</v>
       </c>
       <c r="E9" t="s">
@@ -2685,7 +2683,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>43772.9269907407</v>
       </c>
       <c r="E10" t="s">
@@ -2711,7 +2709,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>43772.926712963</v>
       </c>
       <c r="E11" t="s">
@@ -2737,7 +2735,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>43772.9264236111</v>
       </c>
       <c r="E12" t="s">
@@ -2763,7 +2761,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>43772.9261458333</v>
       </c>
       <c r="E13" t="s">
@@ -2789,7 +2787,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>43772.9258680556</v>
       </c>
       <c r="E14" t="s">
@@ -2815,7 +2813,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>43772.9255208333</v>
       </c>
       <c r="E15" t="s">
@@ -2841,7 +2839,7 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>43772.9229050926</v>
       </c>
       <c r="E16" t="s">
@@ -2867,7 +2865,7 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>43772.9225810185</v>
       </c>
       <c r="E17" t="s">
@@ -2893,7 +2891,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>43772.9222800926</v>
       </c>
       <c r="E18" t="s">
@@ -2919,7 +2917,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>43772.9219560185</v>
       </c>
       <c r="E19" t="s">
@@ -2945,7 +2943,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>43772.9196527778</v>
       </c>
       <c r="E20" t="s">
@@ -2968,7 +2966,7 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>43772.919224537</v>
       </c>
       <c r="E21" t="s">
@@ -2994,7 +2992,7 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>43772.9188425926</v>
       </c>
       <c r="E22" t="s">
@@ -3034,639 +3032,639 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1.02019110410012e+23</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11">
         <v>43773.417662037</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>598</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>1.02019110410004e+23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
         <v>43773.4171990741</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>396</v>
       </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1.02019110410001e+23</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
         <v>43773.4168518518</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>512</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>1.02019110409594e+23</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
         <v>43773.4164583333</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>787</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>1.0201911040959e+23</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>43773.4160763889</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>661</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>1.02019110409584e+23</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
         <v>43773.415787037</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>322.9</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>1.02019110409581e+23</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
         <v>43773.415462963</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>621.9</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>1.02019110409541e+23</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15">
         <v>43773.4127083333</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>190</v>
       </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>1.02019110409534e+23</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
         <v>43773.4123263889</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>548</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>1.02019110409525e+23</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15">
         <v>43773.4117592593</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>79</v>
       </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>1.02019110409522e+23</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
         <v>43773.4113425926</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>127</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>1.02019110409505e+23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15">
         <v>43773.4103009259</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>101.9</v>
       </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>1.02019110409495e+23</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
         <v>43773.4096759259</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>640.9</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>1.02019110409482e+23</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15">
         <v>43773.4085763889</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>149.9</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="15"/>
+      <c r="A29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>1.02019110409465e+23</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
         <v>43773.4076273148</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>1079</v>
       </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="15"/>
+      <c r="A31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>1.02019110409373e+23</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
         <v>43773.4010532407</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>589</v>
       </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>1.02019110409351e+23</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="B34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15">
         <v>43773.399525463</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>66</v>
       </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="15"/>
+      <c r="A35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>1.02019110409342e+23</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11">
         <v>43773.3988425926</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>522</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -3809,8 +3807,8 @@
   <sheetPr/>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3821,1149 +3819,1149 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>1.0201911052106e+23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11">
         <v>43774.8792592593</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="12">
         <v>729.9</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="14">
         <v>1.02019110521053e+23</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
         <v>43774.8789236111</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="16">
         <v>1340.9</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <v>1.02019110521051e+23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
         <v>43774.8786342593</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="12">
         <v>311</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="14">
         <v>1.02019110521044e+23</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
         <v>43774.8783217593</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="16">
         <v>1388</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <v>1.02019110521021e+23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>43774.8765972222</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="12">
         <v>143</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="14">
         <v>1.02019110521015e+23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
         <v>43774.8763078704</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="16">
         <v>321</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <v>1.02019110521012e+23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
         <v>43774.8760300926</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="12">
         <v>312.9</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="14">
         <v>1.0201911052101e+23</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15">
         <v>43774.875775463</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="16">
         <v>187.9</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="10">
         <v>1.02019110521004e+23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
         <v>43774.8755324074</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="12">
         <v>299</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="14">
         <v>1.02019110521002e+23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15">
         <v>43774.8753125</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="16">
         <v>1352</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="2">
+      <c r="A22" s="10">
         <v>1.02019110521e+23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
         <v>43774.8750578704</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="12">
         <v>207.9</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="6">
+      <c r="A24" s="14">
         <v>1.02019110520594e+23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15">
         <v>43774.8748611111</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="16">
         <v>561</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="2">
+      <c r="A26" s="10">
         <v>1.02019110520592e+23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
         <v>43774.874537037</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="12">
         <v>655</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="6">
+      <c r="A28" s="14">
         <v>1.0201911052059e+23</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15">
         <v>43774.8743402778</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="16">
         <v>957</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="14">
         <v>1.02019110520555e+23</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
         <v>43774.8721180556</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="16">
         <v>1064</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="6"/>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="2">
+      <c r="A32" s="10">
         <v>1.02019110520552e+23</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
         <v>43774.8718287037</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="12">
         <v>764</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
+      <c r="A33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="6">
+      <c r="A34" s="14">
         <v>1.0201911052055e+23</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15">
         <v>43774.8715740741</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="16">
         <v>763.9</v>
       </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="2">
+      <c r="A36" s="10">
         <v>1.02019110520543e+23</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11">
         <v>43774.8712268519</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="12">
         <v>463.9</v>
       </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="6">
+      <c r="A38" s="14">
         <v>1.0201911052054e+23</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15">
         <v>43774.8708680556</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="16">
         <v>404.9</v>
       </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="2">
+      <c r="A40" s="10">
         <v>1.02019110520525e+23</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11">
         <v>43774.8700347222</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="12">
         <v>444</v>
       </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="10">
         <v>1.020191105184e+23</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11">
         <v>43774.7778819444</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="12">
         <v>184</v>
       </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="6">
+      <c r="A44" s="14">
         <v>1.02019110518391e+23</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="B44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="15">
         <v>43774.7771990741</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="16">
         <v>39.8</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="2">
+      <c r="A46" s="10">
         <v>1.02019110518383e+23</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11">
         <v>43774.7768402778</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="12">
         <v>142</v>
       </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="2"/>
+      <c r="A47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="6">
+      <c r="A48" s="14">
         <v>1.02019110518371e+23</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="B48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="15">
         <v>43774.7759143518</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="16">
         <v>131.9</v>
       </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="2">
+      <c r="A50" s="10">
         <v>1.02019110518364e+23</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="11">
         <v>43774.7755555556</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="12">
         <v>958</v>
       </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
+      <c r="A51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" ht="14.25" spans="1:7">
-      <c r="A52" s="6">
+      <c r="A52" s="14">
         <v>1.02019110518362e+23</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="B52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="15">
         <v>43774.7752430556</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="16">
         <v>151</v>
       </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:7">
-      <c r="A53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="6"/>
+      <c r="A53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" ht="14.25" spans="1:7">
-      <c r="A54" s="2">
+      <c r="A54" s="10">
         <v>1.02019110518352e+23</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="11">
         <v>43774.7746064815</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="12">
         <v>105.9</v>
       </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:7">
-      <c r="A55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="2"/>
+      <c r="A55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" ht="14.25" spans="1:7">
-      <c r="A56" s="6">
+      <c r="A56" s="14">
         <v>1.02019110518263e+23</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="7">
+      <c r="B56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="15">
         <v>43774.7684259259</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="16">
         <v>581</v>
       </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:7">
-      <c r="A57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="6"/>
+      <c r="A57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="6">
+      <c r="A58" s="14">
         <v>1.0201911051826e+23</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="7">
+      <c r="B58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="15">
         <v>43774.7680671296</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="16">
         <v>141</v>
       </c>
-      <c r="F58" s="8">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="F58" s="16">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:7">
-      <c r="A59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="6"/>
+      <c r="A59" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="2">
+      <c r="A60" s="10">
         <v>1.02019110518253e+23</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="11">
         <v>43774.7677430556</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="12">
         <v>131.9</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="2"/>
+      <c r="A61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" ht="14.25" spans="1:7">
-      <c r="A62" s="6">
+      <c r="A62" s="14">
         <v>1.0201911051825e+23</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="7">
+      <c r="B62" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="15">
         <v>43774.7674421296</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="16">
         <v>149</v>
       </c>
-      <c r="F62" s="8">
-        <v>0</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+      <c r="G62" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="6"/>
+      <c r="A63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" ht="14.25" spans="1:7">
-      <c r="A64" s="2">
+      <c r="A64" s="10">
         <v>1.02019110518241e+23</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="11">
         <v>43774.7668171296</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="12">
         <v>227</v>
       </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:7">
-      <c r="A65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="2"/>
+      <c r="A65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" ht="14.25" spans="1:7">
-      <c r="A66" s="6">
+      <c r="A66" s="14">
         <v>1.02019110518225e+23</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="7">
+      <c r="B66" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="15">
         <v>43774.7658680556</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="16">
         <v>346.9</v>
       </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="6" t="s">
+      <c r="F66" s="16">
+        <v>0</v>
+      </c>
+      <c r="G66" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="6"/>
+      <c r="A67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="198">
@@ -5204,4 +5202,850 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E$1:E$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.125"/>
+    <col min="3" max="3" width="13.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1.0201911062038e+23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43775.8597685185</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>310.9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>1.02019110620374e+23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43775.8595023148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7">
+        <v>502</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="1">
+        <v>1.02019110620371e+23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43775.8592361111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>385</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="5">
+        <v>1.02019110620365e+23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43775.8589236111</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>832</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="1">
+        <v>1.02019110620362e+23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43775.8586226852</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>434.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="5">
+        <v>1.02019110620355e+23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43775.8583101852</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>383.9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="1">
+        <v>1.02019110620353e+23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43775.8580208333</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>477</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="5">
+        <v>1.0201911062035e+23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43775.8577199074</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7">
+        <v>363</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="1">
+        <v>1.02019110620343e+23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43775.857349537</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
+        <v>356</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="5">
+        <v>1.02019110620341e+23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43775.8570717593</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7">
+        <v>495</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="1">
+        <v>1.02019110620334e+23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43775.8567592593</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>250</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="5">
+        <v>1.02019110620331e+23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43775.8563657407</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7">
+        <v>906.7</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="1">
+        <v>1.02019110620322e+23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43775.8558796296</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3">
+        <v>770</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="5">
+        <v>1.0201911062032e+23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43775.8555671296</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="7">
+        <v>947</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="5">
+        <v>1.0201911062031e+23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6">
+        <v>43775.8549074074</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7">
+        <v>521</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="1">
+        <v>1.02019110620304e+23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43775.8546296296</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3">
+        <v>274</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="5">
+        <v>1.02019110620301e+23</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="6">
+        <v>43775.8542939815</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="7">
+        <v>452</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="1">
+        <v>1.02019110620293e+23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43775.853912037</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1120</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="5">
+        <v>1.02019110620291e+23</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="6">
+        <v>43775.8536111111</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7">
+        <v>427</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="1">
+        <v>1.02019110620283e+23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43775.8531944444</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3">
+        <v>313</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3710"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3709"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3708"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3707"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3706"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3705"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3704"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3703"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3702"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3701"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3700"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3699"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3698"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3697"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3696"/>
+    <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3695"/>
+    <hyperlink ref="A35" r:id="rId17" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3694"/>
+    <hyperlink ref="A37" r:id="rId18" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3693"/>
+    <hyperlink ref="A39" r:id="rId19" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3692"/>
+    <hyperlink ref="A41" r:id="rId20" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3691"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="19.11.4" sheetId="4" r:id="rId4"/>
     <sheet name="19.11.5" sheetId="5" r:id="rId5"/>
     <sheet name="19.11.6" sheetId="6" r:id="rId6"/>
+    <sheet name="19.11.7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="48">
   <si>
     <t>订单编号</t>
   </si>
@@ -198,11 +199,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -211,6 +212,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -225,15 +233,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.75"/>
-      <color rgb="FF222222"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,16 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,17 +301,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,36 +320,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,14 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -354,23 +346,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEBF2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,55 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBF2F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,55 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +506,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,13 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +613,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,11 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,26 +682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,26 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,16 +730,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,172 +748,175 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1280,25 +1284,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1370,25 +1374,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2452,7 +2456,7 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="19">
         <v>43772.9371990741</v>
       </c>
       <c r="E1" t="s">
@@ -2478,7 +2482,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <v>43772.9366435185</v>
       </c>
       <c r="E2" t="s">
@@ -2504,7 +2508,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>43772.9354050926</v>
       </c>
       <c r="E3" t="s">
@@ -2530,7 +2534,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>43772.9350694444</v>
       </c>
       <c r="E4" t="s">
@@ -2556,7 +2560,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>43772.9344444444</v>
       </c>
       <c r="E5" t="s">
@@ -2582,7 +2586,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>43772.9339351852</v>
       </c>
       <c r="E6" t="s">
@@ -2608,7 +2612,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="19">
         <v>43772.933599537</v>
       </c>
       <c r="E7" t="s">
@@ -2634,7 +2638,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="19">
         <v>43772.9327662037</v>
       </c>
       <c r="E8" t="s">
@@ -2660,7 +2664,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="19">
         <v>43772.9284606481</v>
       </c>
       <c r="E9" t="s">
@@ -2683,7 +2687,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <v>43772.9269907407</v>
       </c>
       <c r="E10" t="s">
@@ -2709,7 +2713,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>43772.926712963</v>
       </c>
       <c r="E11" t="s">
@@ -2735,7 +2739,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>43772.9264236111</v>
       </c>
       <c r="E12" t="s">
@@ -2761,7 +2765,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>43772.9261458333</v>
       </c>
       <c r="E13" t="s">
@@ -2787,7 +2791,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>43772.9258680556</v>
       </c>
       <c r="E14" t="s">
@@ -2813,7 +2817,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="19">
         <v>43772.9255208333</v>
       </c>
       <c r="E15" t="s">
@@ -2839,7 +2843,7 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>43772.9229050926</v>
       </c>
       <c r="E16" t="s">
@@ -2865,7 +2869,7 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>43772.9225810185</v>
       </c>
       <c r="E17" t="s">
@@ -2891,7 +2895,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>43772.9222800926</v>
       </c>
       <c r="E18" t="s">
@@ -2917,7 +2921,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>43772.9219560185</v>
       </c>
       <c r="E19" t="s">
@@ -2943,7 +2947,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>43772.9196527778</v>
       </c>
       <c r="E20" t="s">
@@ -2966,7 +2970,7 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>43772.919224537</v>
       </c>
       <c r="E21" t="s">
@@ -2992,7 +2996,7 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="19">
         <v>43772.9188425926</v>
       </c>
       <c r="E22" t="s">
@@ -3032,25 +3036,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3819,25 +3823,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5209,7 +5213,7 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E10" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
@@ -5220,685 +5224,685 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="10">
         <v>1.0201911062038e+23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11">
         <v>43775.8597685185</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="12">
         <v>310.9</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="14">
         <v>1.02019110620374e+23</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
         <v>43775.8595023148</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="16">
         <v>502</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>1.02019110620371e+23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
         <v>43775.8592361111</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>385</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="14">
         <v>1.02019110620365e+23</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
         <v>43775.8589236111</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="16">
         <v>832</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="10">
         <v>1.02019110620362e+23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>43775.8586226852</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>434.5</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="14">
         <v>1.02019110620355e+23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
         <v>43775.8583101852</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="16">
         <v>383.9</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="10">
         <v>1.02019110620353e+23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
         <v>43775.8580208333</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>477</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="14">
         <v>1.0201911062035e+23</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15">
         <v>43775.8577199074</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="16">
         <v>363</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="10">
         <v>1.02019110620343e+23</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
         <v>43775.857349537</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
         <v>356</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="14">
         <v>1.02019110620341e+23</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15">
         <v>43775.8570717593</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="16">
         <v>495</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="10">
         <v>1.02019110620334e+23</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
         <v>43775.8567592593</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="12">
         <v>250</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="14">
         <v>1.02019110620331e+23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15">
         <v>43775.8563657407</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="16">
         <v>906.7</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>1.02019110620322e+23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
         <v>43775.8558796296</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="12">
         <v>770</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="5">
+      <c r="A28" s="14">
         <v>1.0201911062032e+23</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15">
         <v>43775.8555671296</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="16">
         <v>947</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="5">
+      <c r="A30" s="14">
         <v>1.0201911062031e+23</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
         <v>43775.8549074074</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="16">
         <v>521</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="10">
         <v>1.02019110620304e+23</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
         <v>43775.8546296296</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="12">
         <v>274</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="5">
+      <c r="A34" s="14">
         <v>1.02019110620301e+23</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15">
         <v>43775.8542939815</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="16">
         <v>452</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
+      <c r="A35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="1">
+      <c r="A36" s="10">
         <v>1.02019110620293e+23</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11">
         <v>43775.853912037</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="12">
         <v>1120</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="5">
+      <c r="A38" s="14">
         <v>1.02019110620291e+23</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15">
         <v>43775.8536111111</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="16">
         <v>427</v>
       </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="1">
+      <c r="A40" s="10">
         <v>1.02019110620283e+23</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11">
         <v>43775.8531944444</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="12">
         <v>313</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -6048,4 +6052,663 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="26.25" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="2">
+        <v>1.02019110715402e+23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43776.6530092593</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4">
+        <v>802</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="6">
+        <v>1.02019110715395e+23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43776.6527546296</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8">
+        <v>660</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="2">
+        <v>1.02019110715394e+23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43776.6525462963</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>133.9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="6">
+        <v>1.02019110715391e+23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43776.6522800926</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>552</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="2">
+        <v>1.02019110715385e+23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43776.6520486111</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>120.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="6">
+        <v>1.02019110715382e+23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43776.651724537</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>181</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="2">
+        <v>1.02019110715365e+23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43776.6506018518</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="6">
+        <v>1.02019110715354e+23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43776.6497916667</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8">
+        <v>500</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="2">
+        <v>1.02019110715351e+23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43776.649525463</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4">
+        <v>845</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="6">
+        <v>1.02019110715345e+23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43776.6492708333</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8">
+        <v>335</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="2">
+        <v>1.02019110715344e+23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43776.6490972222</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4">
+        <v>132.9</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="6">
+        <v>1.02019110715342e+23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7">
+        <v>43776.648912037</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="8">
+        <v>306</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="2">
+        <v>1.0201911071534e+23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43776.6486805556</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4">
+        <v>539.9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="6">
+        <v>1.02019110715334e+23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="7">
+        <v>43776.6484027778</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8">
+        <v>797</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="6">
+        <v>1.0201911071533e+23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43776.6479398148</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8">
+        <v>94</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3727"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3726"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3725"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3724"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3723"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3722"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3721"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3720"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3719"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3718"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3717"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3716"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3715"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3714"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3713"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28245" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="19.11.5" sheetId="5" r:id="rId5"/>
     <sheet name="19.11.6" sheetId="6" r:id="rId6"/>
     <sheet name="19.11.7" sheetId="7" r:id="rId7"/>
+    <sheet name="19.11.8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="48">
   <si>
     <t>订单编号</t>
   </si>
@@ -201,8 +202,8 @@
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -234,7 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,52 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,19 +270,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +293,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,22 +372,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,7 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +435,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +489,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,145 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,11 +614,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,32 +668,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,35 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,37 +731,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,98 +770,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,9 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1284,25 +1282,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1374,25 +1372,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2456,7 +2454,7 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="18">
         <v>43772.9371990741</v>
       </c>
       <c r="E1" t="s">
@@ -2482,7 +2480,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>43772.9366435185</v>
       </c>
       <c r="E2" t="s">
@@ -2508,7 +2506,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>43772.9354050926</v>
       </c>
       <c r="E3" t="s">
@@ -2534,7 +2532,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>43772.9350694444</v>
       </c>
       <c r="E4" t="s">
@@ -2560,7 +2558,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>43772.9344444444</v>
       </c>
       <c r="E5" t="s">
@@ -2586,7 +2584,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>43772.9339351852</v>
       </c>
       <c r="E6" t="s">
@@ -2612,7 +2610,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>43772.933599537</v>
       </c>
       <c r="E7" t="s">
@@ -2638,7 +2636,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>43772.9327662037</v>
       </c>
       <c r="E8" t="s">
@@ -2664,7 +2662,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>43772.9284606481</v>
       </c>
       <c r="E9" t="s">
@@ -2687,7 +2685,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>43772.9269907407</v>
       </c>
       <c r="E10" t="s">
@@ -2713,7 +2711,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>43772.926712963</v>
       </c>
       <c r="E11" t="s">
@@ -2739,7 +2737,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>43772.9264236111</v>
       </c>
       <c r="E12" t="s">
@@ -2765,7 +2763,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>43772.9261458333</v>
       </c>
       <c r="E13" t="s">
@@ -2791,7 +2789,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>43772.9258680556</v>
       </c>
       <c r="E14" t="s">
@@ -2817,7 +2815,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>43772.9255208333</v>
       </c>
       <c r="E15" t="s">
@@ -2843,7 +2841,7 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>43772.9229050926</v>
       </c>
       <c r="E16" t="s">
@@ -2869,7 +2867,7 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>43772.9225810185</v>
       </c>
       <c r="E17" t="s">
@@ -2895,7 +2893,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>43772.9222800926</v>
       </c>
       <c r="E18" t="s">
@@ -2921,7 +2919,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>43772.9219560185</v>
       </c>
       <c r="E19" t="s">
@@ -2947,7 +2945,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>43772.9196527778</v>
       </c>
       <c r="E20" t="s">
@@ -2970,7 +2968,7 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>43772.919224537</v>
       </c>
       <c r="E21" t="s">
@@ -2996,7 +2994,7 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>43772.9188425926</v>
       </c>
       <c r="E22" t="s">
@@ -3036,25 +3034,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3823,25 +3821,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6059,8 +6057,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6089,514 +6087,514 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>1.02019110715402e+23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11">
         <v>43776.6530092593</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="12">
         <v>802</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="14">
         <v>1.02019110715395e+23</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
         <v>43776.6527546296</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="16">
         <v>660</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <v>1.02019110715394e+23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
         <v>43776.6525462963</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="12">
         <v>133.9</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="14">
         <v>1.02019110715391e+23</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
         <v>43776.6522800926</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="16">
         <v>552</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <v>1.02019110715385e+23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>43776.6520486111</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="12">
         <v>120.5</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="14">
         <v>1.02019110715382e+23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
         <v>43776.651724537</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="16">
         <v>181</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <v>1.02019110715365e+23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
         <v>43776.6506018518</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="12">
         <v>45</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="14">
         <v>1.02019110715354e+23</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15">
         <v>43776.6497916667</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="16">
         <v>500</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="10">
         <v>1.02019110715351e+23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
         <v>43776.649525463</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="12">
         <v>845</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="14">
         <v>1.02019110715345e+23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15">
         <v>43776.6492708333</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="16">
         <v>335</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="2">
+      <c r="A22" s="10">
         <v>1.02019110715344e+23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
         <v>43776.6490972222</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="12">
         <v>132.9</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="6">
+      <c r="A24" s="14">
         <v>1.02019110715342e+23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15">
         <v>43776.648912037</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="16">
         <v>306</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="2">
+      <c r="A26" s="10">
         <v>1.0201911071534e+23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
         <v>43776.6486805556</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="12">
         <v>539.9</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="6">
+      <c r="A28" s="14">
         <v>1.02019110715334e+23</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15">
         <v>43776.6484027778</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="16">
         <v>797</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="6">
+      <c r="A30" s="14">
         <v>1.0201911071533e+23</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
         <v>43776.6479398148</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="16">
         <v>94</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -6711,4 +6709,1155 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="2">
+        <v>1.02019110816153e+23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43777.6774537037</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>451</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="6">
+        <v>1.0201911081615e+23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43777.6771180556</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>743.9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="2">
+        <v>1.02019110816143e+23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43777.6767708333</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>620</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="6">
+        <v>1.02019110816135e+23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43777.6763773148</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>701</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="2">
+        <v>1.02019110816133e+23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43777.676099537</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>577.9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="6">
+        <v>1.0201911081613e+23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43777.6756944444</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>241</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="6">
+        <v>1.0201911081611e+23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43777.674375</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
+        <v>250</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="2">
+        <v>1.02019110816104e+23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43777.6740740741</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="6">
+        <v>1.020191108161e+23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7">
+        <v>43777.6737037037</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8">
+        <v>418</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="2">
+        <v>1.02019110816094e+23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43777.6734375</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>142</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="6">
+        <v>1.02019110816091e+23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43777.6730324074</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8">
+        <v>81</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="2">
+        <v>1.02019110816083e+23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43777.6725925926</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4">
+        <v>547</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="6">
+        <v>1.0201911081608e+23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43777.6722916667</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8">
+        <v>567</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="6">
+        <v>1.02019110816073e+23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="7">
+        <v>43777.6719212963</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="2">
+        <v>1.02019110816065e+23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43777.6715162037</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4">
+        <v>160</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="6">
+        <v>1.0201911081606e+23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7">
+        <v>43777.6709027778</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="8">
+        <v>258</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="2">
+        <v>1.02019110816053e+23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43777.6704861111</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4">
+        <v>248</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="6">
+        <v>1.02019110816045e+23</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7">
+        <v>43777.6700462963</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="8">
+        <v>203</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="2">
+        <v>1.02019110816042e+23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43777.6697685185</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4">
+        <v>141</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="6">
+        <v>1.0201911081604e+23</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="7">
+        <v>43777.6694675926</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="8">
+        <v>244</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="2">
+        <v>1.02019110816033e+23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43777.6691898148</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="4">
+        <v>86</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:7">
+      <c r="A44" s="6">
+        <v>1.0201911081603e+23</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43777.6688078704</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="8">
+        <v>221</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:7">
+      <c r="A45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:7">
+      <c r="A46" s="2">
+        <v>1.02019110816024e+23</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43777.6685532407</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4">
+        <v>483</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:7">
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:7">
+      <c r="A48" s="6">
+        <v>1.02019110816021e+23</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7">
+        <v>43777.6681828704</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="8">
+        <v>150</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:7">
+      <c r="A50" s="2">
+        <v>1.02019110816014e+23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43777.6678240741</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="4">
+        <v>56</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:7">
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:7">
+      <c r="A52" s="6">
+        <v>1.02019110816011e+23</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="7">
+        <v>43777.6675115741</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="8">
+        <v>461</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:7">
+      <c r="A53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:7">
+      <c r="A54" s="2">
+        <v>1.02019110815595e+23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43777.6666550926</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="4">
+        <v>177</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="162">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3756"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3755"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3754"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3753"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3752"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3751"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3749"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3748"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3747"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3746"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3745"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3744"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3743"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3742"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3741"/>
+    <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3740"/>
+    <hyperlink ref="A35" r:id="rId17" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3739"/>
+    <hyperlink ref="A37" r:id="rId18" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3738"/>
+    <hyperlink ref="A39" r:id="rId19" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3737"/>
+    <hyperlink ref="A41" r:id="rId20" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3736"/>
+    <hyperlink ref="A43" r:id="rId21" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3735"/>
+    <hyperlink ref="A45" r:id="rId22" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3734"/>
+    <hyperlink ref="A47" r:id="rId23" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3733"/>
+    <hyperlink ref="A49" r:id="rId24" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3732"/>
+    <hyperlink ref="A51" r:id="rId25" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3731"/>
+    <hyperlink ref="A53" r:id="rId26" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3730"/>
+    <hyperlink ref="A55" r:id="rId27" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3729"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84799BC0-41BD-4D2D-B431-14CA5B60296E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC9137-B217-4909-96CA-9CAB159F829A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="19.11.7" sheetId="7" r:id="rId7"/>
     <sheet name="19.11.8" sheetId="8" r:id="rId8"/>
     <sheet name="19.11.9" sheetId="9" r:id="rId9"/>
+    <sheet name="19.11.10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="73">
   <si>
     <t>订单编号</t>
   </si>
@@ -245,6 +246,45 @@
   <si>
     <t>102019110919562351074925 查看</t>
   </si>
+  <si>
+    <t>102019111019510811902345 查看</t>
+  </si>
+  <si>
+    <t>102019111019500849841135 查看</t>
+  </si>
+  <si>
+    <t>102019111019493596821424 查看</t>
+  </si>
+  <si>
+    <t>102019111019491097485028 查看</t>
+  </si>
+  <si>
+    <t>102019111019484341182634 查看</t>
+  </si>
+  <si>
+    <t>102019111019481345828428 查看</t>
+  </si>
+  <si>
+    <t>102019111019470353154043 查看</t>
+  </si>
+  <si>
+    <t>102019111019594917364423 查看</t>
+  </si>
+  <si>
+    <t>102019111019591137975622 查看</t>
+  </si>
+  <si>
+    <t>102019111019584262517332 查看</t>
+  </si>
+  <si>
+    <t>102019111019575429767221 查看</t>
+  </si>
+  <si>
+    <t>102019111019563764129032 查看</t>
+  </si>
+  <si>
+    <t>102019111019560461817730 查看</t>
+  </si>
 </sst>
 </file>
 
@@ -389,10 +429,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,6 +828,360 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90AB2-5C45-4E3B-AA03-6C26678607A0}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43779.83320601852</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>513.9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43779.832766203705</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>397</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43779.832430555558</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>342.8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43779.831875000003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43779.830983796295</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43779.830601851849</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>319</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43779.827175925922</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>1149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43779.826481481483</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>665</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43779.826099537036</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>747</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43779.825810185182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>251.9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10">
+        <v>43779.825497685182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>1287.9000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10">
+        <v>43779.825150462966</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>656.7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43779.824340277781</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>500.8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
@@ -866,16 +1260,16 @@
       <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>43770.708090277803</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>419.4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -887,10 +1281,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,16 +1328,16 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>43770.707280092603</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>672.9</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -955,10 +1349,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1002,16 +1396,16 @@
       <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>43770.706631944398</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>589.79999999999995</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1023,10 +1417,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,16 +1464,16 @@
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <v>43770.705879629597</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>543</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -1091,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,16 +1532,16 @@
       <c r="B20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <v>43770.705162036997</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>317</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -1159,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,16 +1600,16 @@
       <c r="B24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <v>43770.704317129603</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>643</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -1227,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,16 +1668,16 @@
       <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="16">
         <v>43770.7024074074</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>149.9</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="14" t="s">
@@ -1295,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,16 +1770,16 @@
       <c r="B34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <v>43770.701331018499</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>648</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="14" t="s">
@@ -1397,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,16 +1838,16 @@
       <c r="B38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>43770.698113425897</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>998</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -1465,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,16 +1906,16 @@
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <v>43770.694085648101</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>37</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="14" t="s">
@@ -1533,10 +1927,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,16 +1974,16 @@
       <c r="B46" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <v>43770.686770833301</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>186</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -1601,10 +1995,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,16 +2042,16 @@
       <c r="B50" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="16">
         <v>43770.679722222201</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>677.5</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="14" t="s">
@@ -1669,23 +2063,131 @@
         <v>10</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -1710,123 +2212,15 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G32:G33"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2492,16 +2886,16 @@
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>43773.417662036998</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>598</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -2513,10 +2907,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,16 +2954,16 @@
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>43773.416851851798</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>512</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -2581,10 +2975,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,16 +3022,16 @@
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>43773.416076388901</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>661</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -2649,10 +3043,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2696,16 +3090,16 @@
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>43773.415462962999</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>621.9</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -2717,10 +3111,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,16 +3158,16 @@
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>43773.412326388898</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>548</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -2785,10 +3179,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2832,16 +3226,16 @@
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>43773.411342592597</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>127</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -2853,10 +3247,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2900,16 +3294,16 @@
       <c r="B26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <v>43773.409675925897</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>640.9</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -2921,10 +3315,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,16 +3396,16 @@
       <c r="B32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <v>43773.401053240697</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>589</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -3023,10 +3417,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,16 +3464,16 @@
       <c r="B36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="16">
         <v>43773.3988425926</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>522</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -3091,14 +3485,113 @@
         <v>10</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
@@ -3108,105 +3601,6 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -3278,16 +3672,16 @@
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>43774.879259259302</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>729.9</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -3299,10 +3693,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3346,16 +3740,16 @@
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>43774.878634259301</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>311</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -3367,10 +3761,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,16 +3808,16 @@
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>43774.876597222203</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>143</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -3435,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3482,16 +3876,16 @@
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>43774.876030092601</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>312.89999999999998</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -3503,10 +3897,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3550,16 +3944,16 @@
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>43774.875532407401</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>299</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -3571,10 +3965,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,16 +4012,16 @@
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>43774.875057870398</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>207.9</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -3639,10 +4033,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3686,16 +4080,16 @@
       <c r="B26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <v>43774.874537037002</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>655</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -3707,10 +4101,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3788,16 +4182,16 @@
       <c r="B32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <v>43774.871828703697</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>764</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -3809,10 +4203,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,16 +4250,16 @@
       <c r="B36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="16">
         <v>43774.871226851901</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>463.9</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -3877,10 +4271,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,16 +4318,16 @@
       <c r="B40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="16">
         <v>43774.870034722197</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>444</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -3945,10 +4339,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3958,16 +4352,16 @@
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <v>43774.777881944399</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>184</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="14" t="s">
@@ -3979,10 +4373,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,16 +4420,16 @@
       <c r="B46" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <v>43774.776840277802</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>142</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -4047,10 +4441,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4094,16 +4488,16 @@
       <c r="B50" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="16">
         <v>43774.7755555556</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>958</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="14" t="s">
@@ -4115,10 +4509,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,16 +4556,16 @@
       <c r="B54" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="16">
         <v>43774.7746064815</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="15">
         <v>105.9</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="15">
         <v>0</v>
       </c>
       <c r="G54" s="14" t="s">
@@ -4183,10 +4577,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,16 +4658,16 @@
       <c r="B60" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="16">
         <v>43774.7677430556</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <v>131.9</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="15">
         <v>0</v>
       </c>
       <c r="G60" s="14" t="s">
@@ -4285,10 +4679,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4332,16 +4726,16 @@
       <c r="B64" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="16">
         <v>43774.766817129603</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="15">
         <v>227</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="15">
         <v>0</v>
       </c>
       <c r="G64" s="14" t="s">
@@ -4353,10 +4747,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4395,21 +4789,165 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="F60:F61"/>
@@ -4434,165 +4972,21 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -4656,16 +5050,16 @@
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>43775.859768518501</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>310.89999999999998</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -4677,10 +5071,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4724,16 +5118,16 @@
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>43775.8592361111</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>385</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -4745,10 +5139,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4792,16 +5186,16 @@
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>43775.858622685198</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>434.5</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -4813,10 +5207,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,16 +5254,16 @@
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>43775.858020833301</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>477</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -4881,10 +5275,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4928,16 +5322,16 @@
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>43775.857349537</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>356</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -4949,10 +5343,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4996,16 +5390,16 @@
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>43775.856759259303</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>250</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -5017,10 +5411,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5064,16 +5458,16 @@
       <c r="B26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <v>43775.855879629598</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>770</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -5085,10 +5479,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5166,16 +5560,16 @@
       <c r="B32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <v>43775.854629629597</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>274</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -5187,10 +5581,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5234,16 +5628,16 @@
       <c r="B36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="16">
         <v>43775.853912036997</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>1120</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -5255,10 +5649,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5302,16 +5696,16 @@
       <c r="B40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="16">
         <v>43775.853194444397</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>313</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -5323,14 +5717,110 @@
         <v>10</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G2:G3"/>
@@ -5355,102 +5845,6 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5519,16 +5913,16 @@
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>43776.653009259302</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>802</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -5540,10 +5934,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5587,16 +5981,16 @@
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>43776.652546296304</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>133.9</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -5608,10 +6002,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5655,16 +6049,16 @@
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>43776.652048611097</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>120.5</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -5676,10 +6070,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,16 +6117,16 @@
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>43776.650601851798</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>45</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -5744,10 +6138,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5791,16 +6185,16 @@
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>43776.649525462999</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>845</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -5812,10 +6206,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,16 +6253,16 @@
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>43776.649097222202</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>132.9</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -5880,10 +6274,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5927,16 +6321,16 @@
       <c r="B26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <v>43776.648680555598</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>539.9</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -5948,10 +6342,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6024,96 +6418,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6177,16 +6571,16 @@
       <c r="B2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>43777.677453703698</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>451</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -6198,10 +6592,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6245,16 +6639,16 @@
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>43777.676770833299</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>620</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -6266,10 +6660,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6313,16 +6707,16 @@
       <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>43777.676099536999</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>577.9</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -6334,10 +6728,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6415,16 +6809,16 @@
       <c r="B16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <v>43777.674074074101</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>50.9</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -6436,10 +6830,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6483,16 +6877,16 @@
       <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <v>43777.673437500001</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>142</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -6504,10 +6898,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,16 +6945,16 @@
       <c r="B24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <v>43777.6725925926</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>547</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -6572,10 +6966,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6653,16 +7047,16 @@
       <c r="B30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="16">
         <v>43777.6715162037</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>160</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -6674,10 +7068,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6721,16 +7115,16 @@
       <c r="B34" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <v>43777.670486111099</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>248</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="14" t="s">
@@ -6742,10 +7136,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6789,16 +7183,16 @@
       <c r="B38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>43777.669768518499</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>141</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -6810,10 +7204,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6857,16 +7251,16 @@
       <c r="B42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <v>43777.669189814798</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>86</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="14" t="s">
@@ -6878,10 +7272,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6925,16 +7319,16 @@
       <c r="B46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <v>43777.668553240699</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>483</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -6946,10 +7340,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6993,16 +7387,16 @@
       <c r="B50" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="16">
         <v>43777.667824074102</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>56</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="14" t="s">
@@ -7014,10 +7408,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7061,16 +7455,16 @@
       <c r="B54" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="16">
         <v>43777.666655092602</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="15">
         <v>177</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="15">
         <v>0</v>
       </c>
       <c r="G54" s="14" t="s">
@@ -7082,14 +7476,167 @@
         <v>10</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="G42:G43"/>
@@ -7099,159 +7646,6 @@
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -7291,7 +7685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDE1993-2184-4795-A200-9B11EF7F4C61}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" activeTab="9"/>
+    <workbookView windowWidth="28245" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="19.11.8" sheetId="8" r:id="rId8"/>
     <sheet name="19.11.9" sheetId="9" r:id="rId9"/>
     <sheet name="19.11.10" sheetId="10" r:id="rId10"/>
+    <sheet name="19.11.12" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="72">
   <si>
     <t>订单编号</t>
   </si>
@@ -263,11 +264,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -297,30 +298,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -344,83 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +336,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,13 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,37 +487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,31 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,25 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,15 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -701,17 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,6 +704,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,9 +734,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,15 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,141 +795,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -957,6 +955,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1321,61 +1322,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>1.02019102916434e+23</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
         <v>43767.6970601852</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>191</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1400,8 +1401,8 @@
   <sheetPr/>
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1416,7 +1417,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>43779.8332060185</v>
       </c>
       <c r="E2" t="s">
@@ -1442,7 +1443,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>43779.8327662037</v>
       </c>
       <c r="E3" t="s">
@@ -1468,7 +1469,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>43779.8324305556</v>
       </c>
       <c r="E4" t="s">
@@ -1494,7 +1495,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="10">
         <v>43779.831875</v>
       </c>
       <c r="E5" t="s">
@@ -1520,7 +1521,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>43779.8309837963</v>
       </c>
       <c r="E6" t="s">
@@ -1546,7 +1547,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10">
         <v>43779.8306018518</v>
       </c>
       <c r="E7" t="s">
@@ -1572,7 +1573,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>43779.8271759259</v>
       </c>
       <c r="E8" t="s">
@@ -1598,7 +1599,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="10">
         <v>43779.8264814815</v>
       </c>
       <c r="E9" t="s">
@@ -1624,7 +1625,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>43779.826099537</v>
       </c>
       <c r="E10" t="s">
@@ -1650,7 +1651,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="10">
         <v>43779.8258101852</v>
       </c>
       <c r="E11" t="s">
@@ -1676,7 +1677,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="10">
         <v>43779.8254976852</v>
       </c>
       <c r="E12" t="s">
@@ -1702,7 +1703,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="10">
         <v>43779.825150463</v>
       </c>
       <c r="E13" t="s">
@@ -1728,7 +1729,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="10">
         <v>43779.8243402778</v>
       </c>
       <c r="E14" t="s">
@@ -1746,6 +1747,706 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="2">
+        <v>1.02019111212415e+23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43781.5290856482</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>382</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="6">
+        <v>1.02019111212412e+23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43781.5287384259</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8">
+        <v>121.6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="2">
+        <v>1.02019111212405e+23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43781.5284143519</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>314.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="6">
+        <v>1.02019111212402e+23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43781.5281134259</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>195.8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="2">
+        <v>1.02019111212395e+23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43781.5277546296</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>673.9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="6">
+        <v>1.02019111212392e+23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43781.5273263889</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
+        <v>211</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="2">
+        <v>1.02019111212384e+23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43781.5269560185</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>622.8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="6">
+        <v>1.02019111212371e+23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43781.5259027778</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1721</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="2">
+        <v>1.02019111212363e+23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43781.5253587963</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1424</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="2">
+        <v>1.02019111212351e+23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43781.5244212963</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>188</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="6">
+        <v>1.02019111212344e+23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43781.5241319444</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8">
+        <v>635</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="2">
+        <v>1.02019111212341e+23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43781.5237731481</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1183</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="6">
+        <v>1.02019111212332e+23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43781.5232291667</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="8">
+        <v>162.9</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="2">
+        <v>1.02019111212325e+23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43781.5228472222</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4">
+        <v>119.6</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="2">
+        <v>1.02019111212322e+23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43781.5225578704</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1094.9</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="6">
+        <v>1.0201911121231e+23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7">
+        <v>43781.5215509259</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="8">
+        <v>408</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3800"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3799"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3798"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3797"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3796"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3795"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3794"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3793"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3792"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3790"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3789"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3788"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3787"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3786"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3785"/>
+    <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3784"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1766,877 +2467,877 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>1.02019110117073e+23</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
         <v>43770.7136226852</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>24</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>1.02019110116593e+23</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
         <v>43770.7080902778</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>419.4</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>1.02019110116585e+23</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
         <v>43770.7076157407</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>188.9</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>1.02019110116582e+23</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
         <v>43770.7072800926</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>672.9</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>1.0201911011658e+23</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
         <v>43770.7069675926</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>90.6</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>1.02019110116573e+23</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
         <v>43770.7066319444</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>589.8</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:7">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>1.0201911011657e+23</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
         <v>43770.7063194444</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>547</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>1.02019110116562e+23</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
         <v>43770.7058796296</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>543</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>1.02019110116555e+23</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
         <v>43770.705474537</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>785.9</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1.02019110116552e+23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7">
         <v>43770.705162037</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>317</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>1.02019110116543e+23</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
         <v>43770.7046180556</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>603</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>1.02019110116541e+23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7">
         <v>43770.7043171296</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>643</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="7">
+      <c r="A26" s="2">
         <v>1.02019110116522e+23</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
         <v>43770.7030208333</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>152</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>1.02019110116512e+23</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7">
         <v>43770.7024074074</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <v>149.9</v>
       </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:7">
-      <c r="A29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>1.02019110116505e+23</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
         <v>43770.7020023148</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>753</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="7">
+      <c r="A32" s="2">
         <v>1.02019110116502e+23</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
         <v>43770.7016319444</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="4">
         <v>311</v>
       </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>1.02019110116495e+23</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7">
         <v>43770.7013310185</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>648</v>
       </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="7">
+      <c r="A36" s="2">
         <v>1.02019110116492e+23</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
         <v>43770.7009837963</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="4">
         <v>267.9</v>
       </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>1.02019110116451e+23</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7">
         <v>43770.6981134259</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <v>998</v>
       </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="7">
+      <c r="A40" s="2">
         <v>1.02019110116445e+23</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
         <v>43770.6978009259</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="4">
         <v>334</v>
       </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>1.02019110116392e+23</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
         <v>43770.6940856481</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>37</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="7">
+      <c r="A44" s="2">
         <v>1.02019110116385e+23</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
         <v>43770.6936342593</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="4">
         <v>195.9</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>1.02019110116285e+23</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7">
         <v>43770.6867708333</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="8">
         <v>186</v>
       </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="7">
+      <c r="A48" s="2">
         <v>1.02019110116264e+23</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
         <v>43770.6852430556</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="4">
         <v>758</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>1.02019110116184e+23</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="7">
         <v>43770.6797222222</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="8">
         <v>677.5</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -2848,7 +3549,7 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="10">
         <v>43772.9371990741</v>
       </c>
       <c r="E1" t="s">
@@ -2874,7 +3575,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>43772.9366435185</v>
       </c>
       <c r="E2" t="s">
@@ -2900,7 +3601,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>43772.9354050926</v>
       </c>
       <c r="E3" t="s">
@@ -2926,7 +3627,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>43772.9350694444</v>
       </c>
       <c r="E4" t="s">
@@ -2952,7 +3653,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="10">
         <v>43772.9344444444</v>
       </c>
       <c r="E5" t="s">
@@ -2978,7 +3679,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>43772.9339351852</v>
       </c>
       <c r="E6" t="s">
@@ -3004,7 +3705,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10">
         <v>43772.933599537</v>
       </c>
       <c r="E7" t="s">
@@ -3030,7 +3731,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>43772.9327662037</v>
       </c>
       <c r="E8" t="s">
@@ -3056,7 +3757,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="10">
         <v>43772.9284606481</v>
       </c>
       <c r="E9" t="s">
@@ -3079,7 +3780,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>43772.9269907407</v>
       </c>
       <c r="E10" t="s">
@@ -3105,7 +3806,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="10">
         <v>43772.926712963</v>
       </c>
       <c r="E11" t="s">
@@ -3131,7 +3832,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="10">
         <v>43772.9264236111</v>
       </c>
       <c r="E12" t="s">
@@ -3157,7 +3858,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="10">
         <v>43772.9261458333</v>
       </c>
       <c r="E13" t="s">
@@ -3183,7 +3884,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="10">
         <v>43772.9258680556</v>
       </c>
       <c r="E14" t="s">
@@ -3209,7 +3910,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="10">
         <v>43772.9255208333</v>
       </c>
       <c r="E15" t="s">
@@ -3235,7 +3936,7 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="10">
         <v>43772.9229050926</v>
       </c>
       <c r="E16" t="s">
@@ -3261,7 +3962,7 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="10">
         <v>43772.9225810185</v>
       </c>
       <c r="E17" t="s">
@@ -3287,7 +3988,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="10">
         <v>43772.9222800926</v>
       </c>
       <c r="E18" t="s">
@@ -3313,7 +4014,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="10">
         <v>43772.9219560185</v>
       </c>
       <c r="E19" t="s">
@@ -3339,7 +4040,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="10">
         <v>43772.9196527778</v>
       </c>
       <c r="E20" t="s">
@@ -3362,7 +4063,7 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="10">
         <v>43772.919224537</v>
       </c>
       <c r="E21" t="s">
@@ -3388,7 +4089,7 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="10">
         <v>43772.9188425926</v>
       </c>
       <c r="E22" t="s">
@@ -3428,639 +4129,639 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1.02019110410012e+23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <v>43773.417662037</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>598</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>1.02019110410004e+23</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>43773.4171990741</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>396</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1.02019110410001e+23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>43773.4168518518</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>512</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>1.02019110409594e+23</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>43773.4164583333</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>787</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1.0201911040959e+23</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
         <v>43773.4160763889</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>661</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>1.02019110409584e+23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>43773.415787037</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>322.9</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1.02019110409581e+23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
         <v>43773.415462963</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>621.9</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>1.02019110409541e+23</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>43773.4127083333</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>190</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1.02019110409534e+23</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7">
         <v>43773.4123263889</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>548</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>1.02019110409525e+23</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
         <v>43773.4117592593</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>79</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1.02019110409522e+23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
         <v>43773.4113425926</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>127</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>1.02019110409505e+23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>43773.4103009259</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>101.9</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1.02019110409495e+23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
         <v>43773.4096759259</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>640.9</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>1.02019110409482e+23</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>43773.4085763889</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>149.9</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>1.02019110409465e+23</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
         <v>43773.4076273148</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>1079</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>1.02019110409373e+23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7">
         <v>43773.4010532407</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>589</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <v>1.02019110409351e+23</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>43773.399525463</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="4">
         <v>66</v>
       </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>1.02019110409342e+23</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7">
         <v>43773.3988425926</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>522</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -4215,1149 +4916,1149 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1.0201911052106e+23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <v>43774.8792592593</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>729.9</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>1.02019110521053e+23</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>43774.8789236111</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>1340.9</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1.02019110521051e+23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>43774.8786342593</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>311</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>1.02019110521044e+23</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>43774.8783217593</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>1388</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1.02019110521021e+23</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
         <v>43774.8765972222</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>143</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>1.02019110521015e+23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>43774.8763078704</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>321</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1.02019110521012e+23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
         <v>43774.8760300926</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>312.9</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>1.0201911052101e+23</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>43774.875775463</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>187.9</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1.02019110521004e+23</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7">
         <v>43774.8755324074</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>299</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>1.02019110521002e+23</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
         <v>43774.8753125</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>1352</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1.02019110521e+23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
         <v>43774.8750578704</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>207.9</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>1.02019110520594e+23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>43774.8748611111</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>561</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1.02019110520592e+23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
         <v>43774.874537037</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>655</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>1.0201911052059e+23</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>43774.8743402778</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>957</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>1.02019110520555e+23</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
         <v>43774.8721180556</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>1064</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>1.02019110520552e+23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7">
         <v>43774.8718287037</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>764</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <v>1.0201911052055e+23</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>43774.8715740741</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="4">
         <v>763.9</v>
       </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>1.02019110520543e+23</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7">
         <v>43774.8712268519</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>463.9</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="7">
+      <c r="A38" s="2">
         <v>1.0201911052054e+23</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
         <v>43774.8708680556</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="4">
         <v>404.9</v>
       </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>1.02019110520525e+23</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7">
         <v>43774.8700347222</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <v>444</v>
       </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="3"/>
+      <c r="A41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>1.020191105184e+23</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
         <v>43774.7778819444</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>184</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="7">
+      <c r="A44" s="2">
         <v>1.02019110518391e+23</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
         <v>43774.7771990741</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="4">
         <v>39.8</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>1.02019110518383e+23</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7">
         <v>43774.7768402778</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="8">
         <v>142</v>
       </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="7">
+      <c r="A48" s="2">
         <v>1.02019110518371e+23</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
         <v>43774.7759143518</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="4">
         <v>131.9</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>1.02019110518364e+23</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="7">
         <v>43774.7755555556</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="8">
         <v>958</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" ht="14.25" spans="1:7">
-      <c r="A52" s="7">
+      <c r="A52" s="2">
         <v>1.02019110518362e+23</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
         <v>43774.7752430556</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="4">
         <v>151</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:7">
-      <c r="A53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" ht="14.25" spans="1:7">
-      <c r="A54" s="3">
+      <c r="A54" s="6">
         <v>1.02019110518352e+23</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7">
         <v>43774.7746064815</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="8">
         <v>105.9</v>
       </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:7">
-      <c r="A55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="3"/>
+      <c r="A55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" ht="14.25" spans="1:7">
-      <c r="A56" s="7">
+      <c r="A56" s="2">
         <v>1.02019110518263e+23</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3">
         <v>43774.7684259259</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="4">
         <v>581</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:7">
-      <c r="A57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="7"/>
+      <c r="A57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="7">
+      <c r="A58" s="2">
         <v>1.0201911051826e+23</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3">
         <v>43774.7680671296</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="4">
         <v>141</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:7">
-      <c r="A59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="7"/>
+      <c r="A59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="3">
+      <c r="A60" s="6">
         <v>1.02019110518253e+23</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7">
         <v>43774.7677430556</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="8">
         <v>131.9</v>
       </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="3"/>
+      <c r="A61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" ht="14.25" spans="1:7">
-      <c r="A62" s="7">
+      <c r="A62" s="2">
         <v>1.0201911051825e+23</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3">
         <v>43774.7674421296</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="4">
         <v>149</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="7"/>
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" ht="14.25" spans="1:7">
-      <c r="A64" s="3">
+      <c r="A64" s="6">
         <v>1.02019110518241e+23</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="7">
         <v>43774.7668171296</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="8">
         <v>227</v>
       </c>
-      <c r="F64" s="5">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="F64" s="8">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:7">
-      <c r="A65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" ht="14.25" spans="1:7">
-      <c r="A66" s="7">
+      <c r="A66" s="2">
         <v>1.02019110518225e+23</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="3">
         <v>43774.7658680556</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="4">
         <v>346.9</v>
       </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="7"/>
+      <c r="A67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="198">
@@ -5617,684 +6318,684 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1.0201911062038e+23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <v>43775.8597685185</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>310.9</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>1.02019110620374e+23</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>43775.8595023148</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>502</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1.02019110620371e+23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>43775.8592361111</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>385</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>1.02019110620365e+23</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>43775.8589236111</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>832</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1.02019110620362e+23</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
         <v>43775.8586226852</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>434.5</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>1.02019110620355e+23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>43775.8583101852</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>383.9</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1.02019110620353e+23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
         <v>43775.8580208333</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>477</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>1.0201911062035e+23</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>43775.8577199074</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>363</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1.02019110620343e+23</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7">
         <v>43775.857349537</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>356</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>1.02019110620341e+23</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
         <v>43775.8570717593</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>495</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1.02019110620334e+23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
         <v>43775.8567592593</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>250</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>1.02019110620331e+23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>43775.8563657407</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>906.7</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1.02019110620322e+23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
         <v>43775.8558796296</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>770</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>1.0201911062032e+23</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>43775.8555671296</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>947</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>1.0201911062031e+23</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
         <v>43775.8549074074</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>521</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>1.02019110620304e+23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7">
         <v>43775.8546296296</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>274</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <v>1.02019110620301e+23</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>43775.8542939815</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="4">
         <v>452</v>
       </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>1.02019110620293e+23</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7">
         <v>43775.853912037</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>1120</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="7">
+      <c r="A38" s="2">
         <v>1.02019110620291e+23</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
         <v>43775.8536111111</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="4">
         <v>427</v>
       </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>1.02019110620283e+23</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7">
         <v>43775.8531944444</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <v>313</v>
       </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="3"/>
+      <c r="A41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -6458,537 +7159,537 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1.02019110715402e+23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <v>43776.6530092593</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>802</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>1.02019110715395e+23</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>43776.6527546296</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>660</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1.02019110715394e+23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>43776.6525462963</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>133.9</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>1.02019110715391e+23</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>43776.6522800926</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>552</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1.02019110715385e+23</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
         <v>43776.6520486111</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>120.5</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>1.02019110715382e+23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>43776.651724537</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>181</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1.02019110715365e+23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
         <v>43776.6506018518</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>45</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>1.02019110715354e+23</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>43776.6497916667</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>500</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1.02019110715351e+23</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7">
         <v>43776.649525463</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>845</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>1.02019110715345e+23</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
         <v>43776.6492708333</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>335</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1.02019110715344e+23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
         <v>43776.6490972222</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>132.9</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>1.02019110715342e+23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>43776.648912037</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>306</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1.0201911071534e+23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
         <v>43776.6486805556</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>539.9</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>1.02019110715334e+23</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>43776.6484027778</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>797</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>1.0201911071533e+23</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
         <v>43776.6479398148</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>94</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -7117,945 +7818,945 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1.02019110816153e+23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <v>43777.6774537037</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>451</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>1.0201911081615e+23</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>43777.6771180556</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>743.9</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1.02019110816143e+23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>43777.6767708333</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>620</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>1.02019110816135e+23</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>43777.6763773148</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>701</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1.02019110816133e+23</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
         <v>43777.676099537</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>577.9</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>1.0201911081613e+23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
         <v>43777.6756944444</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>241</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>1.0201911081611e+23</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
         <v>43777.674375</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>250</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>1.02019110816104e+23</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
         <v>43777.6740740741</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>50.9</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>1.020191108161e+23</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
         <v>43777.6737037037</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>418</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1.02019110816094e+23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7">
         <v>43777.6734375</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>142</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>1.02019110816091e+23</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
         <v>43777.6730324074</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>81</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>1.02019110816083e+23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7">
         <v>43777.6725925926</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>547</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="7">
+      <c r="A26" s="2">
         <v>1.0201911081608e+23</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
         <v>43777.6722916667</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>567</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>1.02019110816073e+23</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>43777.6719212963</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>116</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>1.02019110816065e+23</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7">
         <v>43777.6715162037</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>160</v>
       </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="7">
+      <c r="A32" s="2">
         <v>1.0201911081606e+23</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
         <v>43777.6709027778</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="4">
         <v>258</v>
       </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>1.02019110816053e+23</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7">
         <v>43777.6704861111</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>248</v>
       </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="7">
+      <c r="A36" s="2">
         <v>1.02019110816045e+23</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
         <v>43777.6700462963</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="4">
         <v>203</v>
       </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>1.02019110816042e+23</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7">
         <v>43777.6697685185</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <v>141</v>
       </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="7">
+      <c r="A40" s="2">
         <v>1.0201911081604e+23</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
         <v>43777.6694675926</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="4">
         <v>244</v>
       </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>1.02019110816033e+23</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
         <v>43777.6691898148</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>86</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="7">
+      <c r="A44" s="2">
         <v>1.0201911081603e+23</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
         <v>43777.6688078704</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="4">
         <v>221</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>1.02019110816024e+23</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7">
         <v>43777.6685532407</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="8">
         <v>483</v>
       </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="7">
+      <c r="A48" s="2">
         <v>1.02019110816021e+23</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
         <v>43777.6681828704</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="4">
         <v>150</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>1.02019110816014e+23</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="7">
         <v>43777.6678240741</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="8">
         <v>56</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" ht="14.25" spans="1:7">
-      <c r="A52" s="7">
+      <c r="A52" s="2">
         <v>1.02019110816011e+23</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
         <v>43777.6675115741</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="4">
         <v>461</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:7">
-      <c r="A53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" ht="14.25" spans="1:7">
-      <c r="A54" s="3">
+      <c r="A54" s="6">
         <v>1.02019110815595e+23</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7">
         <v>43777.6666550926</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="8">
         <v>177</v>
       </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="3"/>
+      <c r="A55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="162">
@@ -8262,31 +8963,31 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="24" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8297,7 +8998,7 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>43778.8385069444</v>
       </c>
       <c r="D2" t="s">
@@ -8320,7 +9021,7 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>43778.8378935185</v>
       </c>
       <c r="D3" t="s">
@@ -8343,7 +9044,7 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>43778.8357175926</v>
       </c>
       <c r="D4" t="s">
@@ -8366,7 +9067,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>43778.8354166667</v>
       </c>
       <c r="D5" t="s">
@@ -8389,7 +9090,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>43778.8351388889</v>
       </c>
       <c r="D6" t="s">
@@ -8412,7 +9113,7 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>43778.8342592593</v>
       </c>
       <c r="D7" t="s">
@@ -8435,7 +9136,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>43778.833912037</v>
       </c>
       <c r="D8" t="s">
@@ -8458,7 +9159,7 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>43778.833599537</v>
       </c>
       <c r="D9" t="s">
@@ -8481,7 +9182,7 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>43778.833275463</v>
       </c>
       <c r="D10" t="s">
@@ -8504,7 +9205,7 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>43778.8321990741</v>
       </c>
       <c r="D11" t="s">
@@ -8527,7 +9228,7 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>43778.8318865741</v>
       </c>
       <c r="D12" t="s">
@@ -8550,7 +9251,7 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10">
         <v>43778.8308217593</v>
       </c>
       <c r="D13" t="s">

--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40BC01-E090-4542-952B-B42D66BA3BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E356468B-F7F7-4ADA-A9A6-76DA279EDE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="806" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="806" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="19.11.13" sheetId="12" r:id="rId12"/>
     <sheet name="19.11.14" sheetId="13" r:id="rId13"/>
     <sheet name="19.11.15" sheetId="14" r:id="rId14"/>
+    <sheet name="11.16" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="128">
   <si>
     <t>订单编号</t>
   </si>
@@ -349,13 +350,118 @@
   <si>
     <t>102019111511173713510248 查看</t>
   </si>
+  <si>
+    <t>102019111611301423361252 查看</t>
+  </si>
+  <si>
+    <t>102019111611295443238829 查看</t>
+  </si>
+  <si>
+    <t>102019111611293472677525 查看</t>
+  </si>
+  <si>
+    <t>102019111611291398376128 查看</t>
+  </si>
+  <si>
+    <t>102019111611285282851630 查看</t>
+  </si>
+  <si>
+    <t>102019111611283370416538 查看</t>
+  </si>
+  <si>
+    <t>102019111611281576354828 查看</t>
+  </si>
+  <si>
+    <t>102019111611275911790135 查看</t>
+  </si>
+  <si>
+    <t>102019111611274622675828 查看</t>
+  </si>
+  <si>
+    <t>102019111611273411496040 查看</t>
+  </si>
+  <si>
+    <t>102019111611272144278337 查看</t>
+  </si>
+  <si>
+    <t>102019111611270873106835 查看</t>
+  </si>
+  <si>
+    <t>102019111611265228448234 查看</t>
+  </si>
+  <si>
+    <t>102019111611263885353034 查看</t>
+  </si>
+  <si>
+    <t>102019111611262235790239 查看</t>
+  </si>
+  <si>
+    <t>102019111611260236903937 查看</t>
+  </si>
+  <si>
+    <t>102019111611254318556236 查看</t>
+  </si>
+  <si>
+    <t>102019111611250036220651 查看</t>
+  </si>
+  <si>
+    <t>102019111611244042081052 查看</t>
+  </si>
+  <si>
+    <t>102019111611241478943035 查看</t>
+  </si>
+  <si>
+    <t>102019111611233432082248 查看</t>
+  </si>
+  <si>
+    <t>102019111611231241796339 查看</t>
+  </si>
+  <si>
+    <t>102019111611224957088626 查看</t>
+  </si>
+  <si>
+    <t>102019111611222747271934 查看</t>
+  </si>
+  <si>
+    <t>102019111611220825868927 查看</t>
+  </si>
+  <si>
+    <t>102019111611200134806350 查看</t>
+  </si>
+  <si>
+    <t>102019111611172080876236 查看</t>
+  </si>
+  <si>
+    <t>102019111611152840942339 查看</t>
+  </si>
+  <si>
+    <t>102019111611150266235542 查看</t>
+  </si>
+  <si>
+    <t>102019111611144020544548 查看</t>
+  </si>
+  <si>
+    <t>102019111611141121350455 查看</t>
+  </si>
+  <si>
+    <t>102019111611133910386736 查看</t>
+  </si>
+  <si>
+    <t>102019111611131468243540 查看</t>
+  </si>
+  <si>
+    <t>102019111611124961137835 查看</t>
+  </si>
+  <si>
+    <t>102019111611120090718643 查看</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -490,7 +596,7 @@
     <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,7 +605,7 @@
     <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3512,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD85613-4F86-4D1A-A59D-80E06F1762EF}">
   <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -4035,6 +4141,933 @@
         <v>23</v>
       </c>
       <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6FB0C3-B8C6-42A6-A913-4039595BE0F7}">
+  <dimension ref="A2:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
+        <v>43785.479328703703</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>272.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11">
+        <v>43785.479097222225</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>261</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43785.478865740741</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>377</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43785.478622685187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>270.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43785.478379629632</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>442</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <v>43785.478159722225</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>658.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43785.477951388886</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43785.477766203701</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43785.47761574074</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>358</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43785.477476851855</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>626</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43785.477326388886</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>195</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43785.477175925924</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>500.8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43785.476990740739</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43785.4768287037</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>1339</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43785.476643518516</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>205.8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43785.476412037038</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>399</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43785.47619212963</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>574</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43785.475694444445</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>832</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43785.475462962961</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>363.9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43785.475162037037</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43785.474699074075</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>289</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43785.474444444444</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>566</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11">
+        <v>43785.474178240744</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>600.6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43785.473923611113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>315</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43785.473703703705</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>461.9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11">
+        <v>43785.472233796296</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>824</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43785.470370370371</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>654</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43785.469074074077</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>396.9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11">
+        <v>43785.468773148146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>173.8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43785.468518518515</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>657</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11">
+        <v>43785.468182870369</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>145.9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="11">
+        <v>43785.467812499999</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>698</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="11">
+        <v>43785.467523148145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>994</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="11">
+        <v>43785.467233796298</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>650.70000000000005</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="11">
+        <v>43785.466666666667</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>827</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
         <v>9</v>
       </c>
     </row>

--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E356468B-F7F7-4ADA-A9A6-76DA279EDE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C6CC8-75CC-4E91-AAC2-110CE218658E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="806" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="806" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="19.11.14" sheetId="13" r:id="rId13"/>
     <sheet name="19.11.15" sheetId="14" r:id="rId14"/>
     <sheet name="11.16" sheetId="15" r:id="rId15"/>
+    <sheet name="11.17" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="150">
   <si>
     <t>订单编号</t>
   </si>
@@ -454,6 +456,72 @@
   </si>
   <si>
     <t>102019111611120090718643 查看</t>
+  </si>
+  <si>
+    <t>102019111709390414078033 查看</t>
+  </si>
+  <si>
+    <t>102019111709383949619314 查看</t>
+  </si>
+  <si>
+    <t>102019111709381456463326 查看</t>
+  </si>
+  <si>
+    <t>102019111709375043422435 查看</t>
+  </si>
+  <si>
+    <t>102019111709372389569413 查看</t>
+  </si>
+  <si>
+    <t>102019111709365944673517 查看</t>
+  </si>
+  <si>
+    <t>102019111709363369465618 查看</t>
+  </si>
+  <si>
+    <t>102019111709360461185332 查看</t>
+  </si>
+  <si>
+    <t>102019111709353965664418 查看</t>
+  </si>
+  <si>
+    <t>102019111709351351383433 查看</t>
+  </si>
+  <si>
+    <t>102019111709344479674120 查看</t>
+  </si>
+  <si>
+    <t>102019111709342158573922 查看</t>
+  </si>
+  <si>
+    <t>102019111709211397891622 查看</t>
+  </si>
+  <si>
+    <t>102019111709204849176325 查看</t>
+  </si>
+  <si>
+    <t>102019111709202255415736 查看</t>
+  </si>
+  <si>
+    <t>102019111709194757637713 查看</t>
+  </si>
+  <si>
+    <t>102019111709185668091223 查看</t>
+  </si>
+  <si>
+    <t>102019111709181792932225 查看</t>
+  </si>
+  <si>
+    <t>102019111709174359155425 查看</t>
+  </si>
+  <si>
+    <t>102019111709170688387516 查看</t>
+  </si>
+  <si>
+    <t>102019111709162615137631 查看</t>
+  </si>
+  <si>
+    <t>102019111709150486108135 查看</t>
   </si>
 </sst>
 </file>
@@ -553,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,11 +670,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,16 +1498,16 @@
       <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>43781.528738425899</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>121.6</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -1448,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,16 +1566,16 @@
       <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>43781.528113425898</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>195.8</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -1516,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,16 +1634,16 @@
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>43781.527326388903</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>211</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>0</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -1584,10 +1655,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,16 +1702,16 @@
       <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>43781.525902777801</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>1721</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -1652,10 +1723,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1733,16 +1804,16 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43781.524131944403</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>635</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -1754,10 +1825,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,16 +1872,16 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43781.523229166698</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>162.9</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -1822,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,16 +1974,16 @@
       <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="17">
         <v>43781.5215509259</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>408</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -1924,14 +1995,94 @@
         <v>10</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G2:G3"/>
@@ -1948,86 +2099,6 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2092,16 +2163,16 @@
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43782.542071759301</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>218.3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -2113,10 +2184,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2160,16 +2231,16 @@
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43782.541377314803</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>928</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -2181,10 +2252,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,16 +2299,16 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43782.540393518502</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>486</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -2249,10 +2320,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,16 +2367,16 @@
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43782.538530092599</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>714</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -2317,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,16 +2435,16 @@
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43782.537569444401</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>445.9</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -2385,10 +2456,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,16 +2503,16 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43782.536874999998</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>1171</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -2453,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2500,16 +2571,16 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43782.536180555602</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>522.9</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -2521,10 +2592,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2563,6 +2634,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G2:G3"/>
@@ -2579,74 +2718,6 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2709,16 +2780,16 @@
       <c r="B2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43783.442175925898</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>568</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -2730,10 +2801,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,16 +2848,16 @@
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43783.441388888903</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>244</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -2798,10 +2869,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,16 +2916,16 @@
       <c r="B10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43783.4401967593</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>566</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -2866,10 +2937,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,16 +2984,16 @@
       <c r="B14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43783.439178240696</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>525</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -2934,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2981,16 +3052,16 @@
       <c r="B18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43783.438518518502</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>628</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -3002,10 +3073,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,16 +3120,16 @@
       <c r="B22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43783.437835648103</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>190</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -3070,10 +3141,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3117,16 +3188,16 @@
       <c r="B26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43783.437222222201</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>262</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -3138,10 +3209,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,16 +3290,16 @@
       <c r="B32" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="17">
         <v>43783.436296296299</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>274</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -3240,10 +3311,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3287,16 +3358,16 @@
       <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
         <v>43783.435671296298</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>119</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>0</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -3308,10 +3379,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3355,16 +3426,16 @@
       <c r="B40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="17">
         <v>43783.435081018499</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="16">
         <v>55.9</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>0</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -3376,10 +3447,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3423,16 +3494,16 @@
       <c r="B44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="17">
         <v>43783.433275463001</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>414</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
@@ -3444,14 +3515,122 @@
         <v>10</v>
       </c>
       <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G2:G3"/>
@@ -3476,114 +3655,6 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G44:G45"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -4155,7 +4226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6FB0C3-B8C6-42A6-A913-4039595BE0F7}">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -5075,6 +5146,792 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6818674-9C26-468F-BD44-309D27F90360}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11">
+        <v>43786.402129629627</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
+        <v>43786.40184027778</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>573</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11">
+        <v>43786.401550925926</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43786.401273148149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43786.400960648149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>361</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43786.400682870371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>458</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <v>43786.400381944448</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43786.400046296294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>372</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43786.399756944447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>350</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43786.399456018517</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>207.9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43786.39912037037</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>248</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43786.398854166669</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>291</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43786.389733796299</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43786.389444444445</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>490</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43786.389143518521</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>458</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43786.388738425929</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>523.9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43786.388148148151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>128.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43786.387696759259</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>774</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43786.387303240743</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>1187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43786.386874999997</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>291</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43786.386412037034</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>844</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43786.385462962964</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>295</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>SUM(F1:F22)</f>
+        <v>10265.299999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCBD3E3-881F-4DF6-9962-5D93C2DD9BBA}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="C44" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5156,16 +6013,16 @@
       <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>43770.708090277803</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>419.4</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -5177,10 +6034,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5224,16 +6081,16 @@
       <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>43770.707280092603</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>672.9</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -5245,10 +6102,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,16 +6149,16 @@
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>43770.706631944398</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>589.79999999999995</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>0</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -5313,10 +6170,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5360,16 +6217,16 @@
       <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>43770.705879629597</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>543</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -5381,10 +6238,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5428,16 +6285,16 @@
       <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>43770.705162036997</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>317</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -5449,10 +6306,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5496,16 +6353,16 @@
       <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="17">
         <v>43770.704317129603</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>643</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -5517,10 +6374,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5564,16 +6421,16 @@
       <c r="B28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="17">
         <v>43770.7024074074</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>149.9</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
@@ -5585,10 +6442,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5666,16 +6523,16 @@
       <c r="B34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="17">
         <v>43770.701331018499</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>648</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>0</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -5687,10 +6544,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5734,16 +6591,16 @@
       <c r="B38" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="17">
         <v>43770.698113425897</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="16">
         <v>998</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>0</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -5755,10 +6612,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5802,16 +6659,16 @@
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="17">
         <v>43770.694085648101</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="16">
         <v>37</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -5823,10 +6680,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5870,16 +6727,16 @@
       <c r="B46" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="17">
         <v>43770.686770833301</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>186</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>0</v>
       </c>
       <c r="G46" s="15" t="s">
@@ -5891,10 +6748,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5938,16 +6795,16 @@
       <c r="B50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="17">
         <v>43770.679722222201</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>677.5</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>0</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -5959,23 +6816,131 @@
         <v>10</v>
       </c>
       <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -6000,123 +6965,15 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G32:G33"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6782,16 +7639,16 @@
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43773.417662036998</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>598</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -6803,10 +7660,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,16 +7707,16 @@
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43773.416851851798</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>512</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -6871,10 +7728,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6918,16 +7775,16 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43773.416076388901</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>661</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -6939,10 +7796,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,16 +7843,16 @@
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43773.415462962999</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>621.9</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -7007,10 +7864,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7054,16 +7911,16 @@
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43773.412326388898</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>548</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -7075,10 +7932,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7122,16 +7979,16 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43773.411342592597</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>127</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -7143,10 +8000,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7190,16 +8047,16 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43773.409675925897</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>640.9</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -7211,10 +8068,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7292,16 +8149,16 @@
       <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="17">
         <v>43773.401053240697</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>589</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -7313,10 +8170,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7360,16 +8217,16 @@
       <c r="B36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
         <v>43773.3988425926</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>522</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>0</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -7381,14 +8238,113 @@
         <v>10</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
@@ -7398,105 +8354,6 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -7568,16 +8425,16 @@
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43774.879259259302</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>729.9</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -7589,10 +8446,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7636,16 +8493,16 @@
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43774.878634259301</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>311</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -7657,10 +8514,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,16 +8561,16 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43774.876597222203</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>143</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -7725,10 +8582,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,16 +8629,16 @@
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43774.876030092601</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>312.89999999999998</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -7793,10 +8650,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7840,16 +8697,16 @@
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43774.875532407401</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>299</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -7861,10 +8718,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7908,16 +8765,16 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43774.875057870398</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>207.9</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -7929,10 +8786,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7976,16 +8833,16 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43774.874537037002</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>655</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -7997,10 +8854,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8078,16 +8935,16 @@
       <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="17">
         <v>43774.871828703697</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>764</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -8099,10 +8956,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8146,16 +9003,16 @@
       <c r="B36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
         <v>43774.871226851901</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>463.9</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>0</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -8167,10 +9024,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8214,16 +9071,16 @@
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="17">
         <v>43774.870034722197</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="16">
         <v>444</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>0</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -8235,10 +9092,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8248,16 +9105,16 @@
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="17">
         <v>43774.777881944399</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="16">
         <v>184</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -8269,10 +9126,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8316,16 +9173,16 @@
       <c r="B46" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="17">
         <v>43774.776840277802</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>142</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>0</v>
       </c>
       <c r="G46" s="15" t="s">
@@ -8337,10 +9194,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8384,16 +9241,16 @@
       <c r="B50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="17">
         <v>43774.7755555556</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>958</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>0</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -8405,10 +9262,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8452,16 +9309,16 @@
       <c r="B54" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="17">
         <v>43774.7746064815</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <v>105.9</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <v>0</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -8473,10 +9330,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8554,16 +9411,16 @@
       <c r="B60" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="17">
         <v>43774.7677430556</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="16">
         <v>131.9</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>0</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -8575,10 +9432,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8622,16 +9479,16 @@
       <c r="B64" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="17">
         <v>43774.766817129603</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="16">
         <v>227</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <v>0</v>
       </c>
       <c r="G64" s="15" t="s">
@@ -8643,10 +9500,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8685,21 +9542,165 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="F60:F61"/>
@@ -8724,165 +9725,21 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8946,16 +9803,16 @@
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43775.859768518501</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>310.89999999999998</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -8967,10 +9824,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9014,16 +9871,16 @@
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43775.8592361111</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>385</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -9035,10 +9892,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9082,16 +9939,16 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43775.858622685198</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>434.5</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -9103,10 +9960,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9150,16 +10007,16 @@
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43775.858020833301</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>477</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -9171,10 +10028,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9218,16 +10075,16 @@
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43775.857349537</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>356</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -9239,10 +10096,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9286,16 +10143,16 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43775.856759259303</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>250</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -9307,10 +10164,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9354,16 +10211,16 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43775.855879629598</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>770</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -9375,10 +10232,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9456,16 +10313,16 @@
       <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="17">
         <v>43775.854629629597</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>274</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -9477,10 +10334,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9524,16 +10381,16 @@
       <c r="B36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
         <v>43775.853912036997</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>1120</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>0</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -9545,10 +10402,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -9592,16 +10449,16 @@
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="17">
         <v>43775.853194444397</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="16">
         <v>313</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>0</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -9613,14 +10470,110 @@
         <v>10</v>
       </c>
       <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G2:G3"/>
@@ -9645,102 +10598,6 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9809,16 +10666,16 @@
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43776.653009259302</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>802</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -9830,10 +10687,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9877,16 +10734,16 @@
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43776.652546296304</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>133.9</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -9898,10 +10755,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9945,16 +10802,16 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43776.652048611097</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>120.5</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -9966,10 +10823,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10013,16 +10870,16 @@
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43776.650601851798</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>45</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -10034,10 +10891,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10081,16 +10938,16 @@
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43776.649525462999</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>845</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -10102,10 +10959,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10149,16 +11006,16 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>43776.649097222202</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>132.9</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -10170,10 +11027,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10217,16 +11074,16 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>43776.648680555598</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>539.9</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -10238,10 +11095,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10314,96 +11171,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10467,16 +11324,16 @@
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43777.677453703698</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>451</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -10488,10 +11345,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10535,16 +11392,16 @@
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43777.676770833299</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>620</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -10556,10 +11413,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10603,16 +11460,16 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43777.676099536999</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>577.9</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -10624,10 +11481,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10705,16 +11562,16 @@
       <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>43777.674074074101</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>50.9</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -10726,10 +11583,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10773,16 +11630,16 @@
       <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>43777.673437500001</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>142</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -10794,10 +11651,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10841,16 +11698,16 @@
       <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="17">
         <v>43777.6725925926</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>547</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -10862,10 +11719,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10943,16 +11800,16 @@
       <c r="B30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="17">
         <v>43777.6715162037</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>160</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
@@ -10964,10 +11821,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -11011,16 +11868,16 @@
       <c r="B34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="17">
         <v>43777.670486111099</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>248</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>0</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -11032,10 +11889,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11079,16 +11936,16 @@
       <c r="B38" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="17">
         <v>43777.669768518499</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="16">
         <v>141</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>0</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -11100,10 +11957,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -11147,16 +12004,16 @@
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="17">
         <v>43777.669189814798</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="16">
         <v>86</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -11168,10 +12025,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -11215,16 +12072,16 @@
       <c r="B46" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="17">
         <v>43777.668553240699</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>483</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>0</v>
       </c>
       <c r="G46" s="15" t="s">
@@ -11236,10 +12093,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -11283,16 +12140,16 @@
       <c r="B50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="17">
         <v>43777.667824074102</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>56</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>0</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -11304,10 +12161,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -11351,16 +12208,16 @@
       <c r="B54" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="17">
         <v>43777.666655092602</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <v>177</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <v>0</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -11372,14 +12229,167 @@
         <v>10</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="G42:G43"/>
@@ -11389,159 +12399,6 @@
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="806" firstSheet="2" activeTab="19"/>
+    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="806" firstSheet="3" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="11.19" sheetId="18" r:id="rId18"/>
     <sheet name="11.20" sheetId="19" r:id="rId19"/>
     <sheet name="11.21" sheetId="20" r:id="rId20"/>
+    <sheet name="11.22" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="150">
   <si>
     <t>订单编号</t>
   </si>
@@ -519,9 +520,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -552,17 +553,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,6 +569,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -585,17 +601,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,29 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -646,23 +631,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,8 +666,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,13 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,19 +748,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +814,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,55 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,43 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,17 +948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,22 +982,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,24 +1030,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1037,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,133 +1050,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,6 +1208,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1217,18 +1230,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11560,7 +11561,7 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
@@ -11568,582 +11569,582 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>1.02019112112465e+23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
         <v>43790.5325810185</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>485</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="13">
         <v>1.02019112112463e+23</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
         <v>43790.532337963</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="15">
         <v>179</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>1.02019112112461e+23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
         <v>43790.5321064815</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>838</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="13">
         <v>1.02019112112455e+23</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
         <v>43790.531875</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="15">
         <v>112.9</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>1.02019112112453e+23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
         <v>43790.5316435185</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="11">
         <v>747</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="13">
         <v>1.02019112112451e+23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14">
         <v>43790.5313773148</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="15">
         <v>325.8</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>1.02019112112444e+23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
         <v>43790.5311226852</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="11">
         <v>444</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="13">
         <v>1.02019112112415e+23</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14">
         <v>43790.5291319444</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="15">
         <v>324</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>1.02019112112413e+23</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10">
         <v>43790.5289236111</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="11">
         <v>878</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="13">
         <v>1.02019112112334e+23</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
         <v>43790.5233912037</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="15">
         <v>142.9</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>1.0201911211233e+23</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10">
         <v>43790.5230208333</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="11">
         <v>395.9</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="13">
         <v>1.02019112112324e+23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="14">
         <v>43790.5227662037</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="15">
         <v>132.8</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>1.02019112112321e+23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10">
         <v>43790.5224189815</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="11">
         <v>405</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="5">
+      <c r="A28" s="13">
         <v>1.02019112112313e+23</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14">
         <v>43790.521875</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="15">
         <v>313</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="5">
+      <c r="A30" s="13">
         <v>1.0201911211231e+23</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="14">
         <v>43790.5215972222</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="15">
         <v>473</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="9">
         <v>1.02019112112303e+23</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10">
         <v>43790.5212152778</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="11">
         <v>918</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="5">
+      <c r="A34" s="13">
         <v>1.02019112112292e+23</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14">
         <v>43790.520462963</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="15">
         <v>76.9</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
+      <c r="A35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="102">
@@ -12268,6 +12269,684 @@
     <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4021"/>
     <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4020"/>
     <hyperlink ref="A35" r:id="rId17" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4019"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="1">
+        <v>1.02019112210591e+23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43791.4578240741</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>693</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="5">
+        <v>1.02019112210585e+23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43791.4575694444</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>443</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="1">
+        <v>1.02019112210573e+23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43791.4567013889</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>233</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="5">
+        <v>1.02019112210571e+23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43791.4564583333</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>143.9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="1">
+        <v>1.02019112210522e+23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43791.4530787037</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>833</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="5">
+        <v>1.0201911221052e+23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43791.4528703704</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7">
+        <v>202.2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="1">
+        <v>1.02019112210513e+23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43791.4525347222</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
+        <v>271.9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="5">
+        <v>1.02019112210511e+23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43791.4522800926</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>298</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="1">
+        <v>1.02019112210505e+23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43791.4520138889</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
+        <v>707</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="5">
+        <v>1.02019112210503e+23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43791.4517592593</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
+        <v>252.9</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="1">
+        <v>1.02019112210492e+23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43791.4509606482</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>298</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="5">
+        <v>1.02019112210474e+23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43791.4497685185</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7">
+        <v>595</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="1">
+        <v>1.02019112210471e+23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43791.449525463</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>484</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="5">
+        <v>1.02019112210465e+23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43791.4492939815</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7">
+        <v>238</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="1">
+        <v>1.02019112210462e+23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43791.4489236111</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>222</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="1">
+        <v>1.02019112210452e+23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43791.4482407407</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3">
+        <v>227</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4052"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4051"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4050"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4049"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4048"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4047"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4046"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4045"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4044"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4043"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4042"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4041"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4040"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4039"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4038"/>
+    <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4037"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="874" firstSheet="5" activeTab="24"/>
+    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="874" firstSheet="6" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="11.24" sheetId="23" r:id="rId23"/>
     <sheet name="11.25" sheetId="24" r:id="rId24"/>
     <sheet name="11.26" sheetId="25" r:id="rId25"/>
+    <sheet name="11.27" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="169">
   <si>
     <t>订单编号</t>
   </si>
@@ -597,10 +598,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="26">
@@ -645,8 +646,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,14 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -682,7 +690,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,37 +712,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -735,17 +719,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,9 +743,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,10 +760,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,7 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +833,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +911,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,49 +947,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,91 +995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,8 +1036,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,8 +1060,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,45 +1130,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1137,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,16 +1150,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,115 +1168,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15376,725 +15377,725 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019112611051e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43795.4619675926</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>122.7</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019112611044e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43795.4616550926</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>143.9</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.02019112611042e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43795.4613773148</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>263.7</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.02019112611035e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43795.4610069444</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>164</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.02019112611032e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43795.4606597222</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>681</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.02019112611025e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43795.4603819444</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>161.5</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019112611022e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43795.4600578704</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>455.9</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.0201911261102e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43795.4597453704</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>271</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>1.02019112611013e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43795.4594560185</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>354</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="13">
         <v>1.02019112611005e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43795.4589467593</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>1001.9</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1.02019112611002e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43795.4586689815</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="11">
         <v>412</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="13">
         <v>1.02019112611e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43795.4583912037</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>484</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>1.02019112610593e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43795.4580787037</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="11">
         <v>121</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="13">
         <v>1.02019112610584e+23</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
         <v>43795.4575</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="15">
         <v>179</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="13">
         <v>1.02019112610582e+23</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
         <v>43795.4571990741</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="15">
         <v>1456.9</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>1.02019112610575e+23</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
         <v>43795.4568634259</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="11">
         <v>386</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="13">
         <v>1.02019112610572e+23</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
         <v>43795.4565509259</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="15">
         <v>488</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>1.0201911261057e+23</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
         <v>43795.45625</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="11">
         <v>350</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="13">
         <v>1.02019112610563e+23</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
         <v>43795.4559375</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="15">
         <v>751</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="1">
+      <c r="A39" s="9">
         <v>1.0201911261056e+23</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10">
         <v>43795.4555555556</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="11">
         <v>670</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="5">
+      <c r="A41" s="13">
         <v>1.02019112610551e+23</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="14">
         <v>43795.4550810185</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="15">
         <v>783</v>
       </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
+      <c r="A42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="126">
@@ -16247,6 +16248,560 @@
     <hyperlink ref="A38" r:id="rId19" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4111"/>
     <hyperlink ref="A40" r:id="rId20" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4110"/>
     <hyperlink ref="A42" r:id="rId21" display="查看" tooltip="https://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4109"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019112709382e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43796.4016550926</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3">
+        <v>665.9</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019112709375e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43796.4012731481</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>161.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.0201911270937e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43796.4007523148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>508</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.02019112709362e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43796.4002777778</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
+        <v>323</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.02019112709355e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43796.3999305556</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>207.9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.02019112709352e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43796.3995601852</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7">
+        <v>226.8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019112709343e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43796.3989930556</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>270</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.0201911270934e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43796.3986574074</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7">
+        <v>230.9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019112709332e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43796.3982175926</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2878</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.02019112709324e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43796.3977662037</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
+        <v>453</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.0201911270932e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43796.3973148148</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1588</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.02019112709312e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43796.3967708333</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>264</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="1">
+        <v>1.02019112709304e+23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43796.3963078704</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>306</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4143"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4142"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4141"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4140"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4139"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4138"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4137"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4136"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4135"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4134"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4133"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4132"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4131"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/s_d/feedit.xlsx
+++ b/s_d/feedit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="874" firstSheet="6" activeTab="25"/>
+    <workbookView windowWidth="28245" windowHeight="12270" tabRatio="874" firstSheet="7" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="11.25" sheetId="24" r:id="rId24"/>
     <sheet name="11.26" sheetId="25" r:id="rId25"/>
     <sheet name="11.27" sheetId="26" r:id="rId26"/>
+    <sheet name="11.28" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="169">
   <si>
     <t>订单编号</t>
   </si>
@@ -598,10 +599,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="26">
@@ -646,98 +647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,8 +663,43 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,8 +721,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,13 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,37 +852,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,67 +972,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,49 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,15 +1034,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1060,47 +1052,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,6 +1083,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1138,10 +1139,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1150,16 +1151,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,115 +1169,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,6 +1309,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1320,20 +1333,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1356,34 +1378,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -16259,453 +16260,453 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1.02019112709382e+23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10">
         <v>43796.4016550926</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="11">
         <v>665.9</v>
       </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>1.02019112709375e+23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
         <v>43796.4012731481</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>161.6</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1.0201911270937e+23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43796.4007523148</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>508</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>1.02019112709362e+23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
         <v>43796.4002777778</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>323</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>1.02019112709355e+23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>43796.3999305556</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>207.9</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>1.02019112709352e+23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
         <v>43796.3995601852</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>226.8</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>1.02019112709343e+23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>43796.3989930556</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="11">
         <v>270</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <v>1.0201911270934e+23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
         <v>43796.3986574074</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>230.9</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>1.02019112709332e+23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>43796.3982175926</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>2878</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="13">
         <v>1.02019112709324e+23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
         <v>43796.3977662037</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>453</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>1.0201911270932e+23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
         <v>43796.3973148148</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="11">
         <v>1588</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="13">
         <v>1.02019112709312e+23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14">
         <v>43796.3967708333</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>264</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>1.02019112709304e+23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>43796.3963078704</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="11">
         <v>306</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -16802,6 +16803,888 @@
     <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4133"/>
     <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4132"/>
     <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4131"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>1.02019112814121e+23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43797.5918634259</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3">
+        <v>185.5</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="5">
+        <v>1.02019112814114e+23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43797.5914814815</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>791.8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>1.02019112814111e+23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43797.5911921296</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>282</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>1.02019112814105e+23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43797.5909143519</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1183</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>1.020191128141e+23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43797.5903587963</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>301</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A11" s="5">
+        <v>1.02019112814094e+23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43797.5901041667</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>229</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1.02019112814091e+23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43797.5898032407</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>718</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5">
+        <v>1.02019112814085e+23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43797.5895138889</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>956.9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1.02019112814082e+23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43797.589224537</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1106</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5">
+        <v>1.0201911281408e+23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43797.5889930556</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7">
+        <v>242.9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1.02019112814074e+23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43797.5886921296</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
+        <v>188</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>1.02019112814071e+23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43797.5883217593</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="7">
+        <v>697.9</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="1">
+        <v>1.02019112814064e+23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43797.587974537</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3">
+        <v>933</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5">
+        <v>1.02019112814061e+23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43797.5877199074</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7">
+        <v>332</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:7">
+      <c r="A29" s="1">
+        <v>1.02019112814054e+23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43797.5873263889</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3">
+        <v>335.9</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1">
+        <v>1.02019112814052e+23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43797.5870949074</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3">
+        <v>118.8</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="5">
+        <v>1.02019112814033e+23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43797.5858101852</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7">
+        <v>575</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="1">
+        <v>1.02019112814025e+23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43797.5853356481</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3">
+        <v>476.9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="5">
+        <v>1.02019112813593e+23</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43797.5829976852</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7">
+        <v>591</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="1">
+        <v>1.02019112813584e+23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43797.5824421296</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="3">
+        <v>628.9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="5">
+        <v>1.02019112813574e+23</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="6">
+        <v>43797.581724537</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="7">
+        <v>765.8</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="126">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4165"/>
+    <hyperlink ref="A4" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4164"/>
+    <hyperlink ref="A6" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4163"/>
+    <hyperlink ref="A8" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4162"/>
+    <hyperlink ref="A10" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4161"/>
+    <hyperlink ref="A12" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4160"/>
+    <hyperlink ref="A14" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4159"/>
+    <hyperlink ref="A16" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4158"/>
+    <hyperlink ref="A18" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4157"/>
+    <hyperlink ref="A20" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4156"/>
+    <hyperlink ref="A22" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4155"/>
+    <hyperlink ref="A24" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4154"/>
+    <hyperlink ref="A26" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4153"/>
+    <hyperlink ref="A28" r:id="rId14" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4152"/>
+    <hyperlink ref="A30" r:id="rId15" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4151"/>
+    <hyperlink ref="A32" r:id="rId16" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4150"/>
+    <hyperlink ref="A34" r:id="rId17" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4149"/>
+    <hyperlink ref="A36" r:id="rId18" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4148"/>
+    <hyperlink ref="A38" r:id="rId19" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4147"/>
+    <hyperlink ref="A40" r:id="rId20" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4146"/>
+    <hyperlink ref="A42" r:id="rId21" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=4145"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
